--- a/Assets/06.Table/RelicTest.xlsx
+++ b/Assets/06.Table/RelicTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC97B9-8EE7-4049-8A03-2E32C5504E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C035666-4CAC-4D7E-842D-E721B8C81F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -283,19 +283,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>abiValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,11 +879,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,7 +965,7 @@
         <v>10섬</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D20" si="0">D3</f>
+        <f t="shared" ref="D4:D40" si="0">D3</f>
         <v>-1</v>
       </c>
       <c r="E4" s="1">
@@ -1307,6 +1307,426 @@
       <c r="E20" s="1">
         <f>VLOOKUP(A20+1,Balance!E:K,7,FALSE)</f>
         <v>9.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <f>VLOOKUP(A21+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999996E+125</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(A21+1,Balance!E:K,2,FALSE)</f>
+        <v>50교</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E21" s="1">
+        <f>VLOOKUP(A21+1,Balance!E:K,7,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <f>VLOOKUP(A22+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(A22+1,Balance!E:K,2,FALSE)</f>
+        <v>100교</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E22" s="1">
+        <f>VLOOKUP(A22+1,Balance!E:K,7,FALSE)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <f>VLOOKUP(A23+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP(A23+1,Balance!E:K,2,FALSE)</f>
+        <v>500교</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E23" s="1">
+        <f>VLOOKUP(A23+1,Balance!E:K,7,FALSE)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <f>VLOOKUP(A24+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="C24" t="str">
+        <f>VLOOKUP(A24+1,Balance!E:K,2,FALSE)</f>
+        <v>1000교</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E24" s="1">
+        <f>VLOOKUP(A24+1,Balance!E:K,7,FALSE)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <f>VLOOKUP(A25+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="C25" t="str">
+        <f>VLOOKUP(A25+1,Balance!E:K,2,FALSE)</f>
+        <v>5000교</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E25" s="1">
+        <f>VLOOKUP(A25+1,Balance!E:K,7,FALSE)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <f>VLOOKUP(A26+1,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="C26" t="str">
+        <f>VLOOKUP(A26+1,Balance!E:K,2,FALSE)</f>
+        <v>1위</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E26" s="1">
+        <f>VLOOKUP(A26+1,Balance!E:K,7,FALSE)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <f>VLOOKUP(A27+1,Balance!E:K,3,FALSE)</f>
+        <v>5E+128</v>
+      </c>
+      <c r="C27" t="str">
+        <f>VLOOKUP(A27+1,Balance!E:K,2,FALSE)</f>
+        <v>5위</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E27" s="1">
+        <f>VLOOKUP(A27+1,Balance!E:K,7,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <f>VLOOKUP(A28+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+129</v>
+      </c>
+      <c r="C28" t="str">
+        <f>VLOOKUP(A28+1,Balance!E:K,2,FALSE)</f>
+        <v>10위</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E28" s="1">
+        <f>VLOOKUP(A28+1,Balance!E:K,7,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <f>VLOOKUP(A29+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="C29" t="str">
+        <f>VLOOKUP(A29+1,Balance!E:K,2,FALSE)</f>
+        <v>50위</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E29" s="1">
+        <f>VLOOKUP(A29+1,Balance!E:K,7,FALSE)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <f>VLOOKUP(A30+1,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="C30" t="str">
+        <f>VLOOKUP(A30+1,Balance!E:K,2,FALSE)</f>
+        <v>100위</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E30" s="1">
+        <f>VLOOKUP(A30+1,Balance!E:K,7,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <f>VLOOKUP(A31+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="C31" t="str">
+        <f>VLOOKUP(A31+1,Balance!E:K,2,FALSE)</f>
+        <v>500위</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E31" s="1">
+        <f>VLOOKUP(A31+1,Balance!E:K,7,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <f>VLOOKUP(A32+1,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="C32" t="str">
+        <f>VLOOKUP(A32+1,Balance!E:K,2,FALSE)</f>
+        <v>1000위</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E32" s="1">
+        <f>VLOOKUP(A32+1,Balance!E:K,7,FALSE)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <f>VLOOKUP(A33+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="C33" t="str">
+        <f>VLOOKUP(A33+1,Balance!E:K,2,FALSE)</f>
+        <v>5000위</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E33" s="1">
+        <f>VLOOKUP(A33+1,Balance!E:K,7,FALSE)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <f>VLOOKUP(A34+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="C34" t="str">
+        <f>VLOOKUP(A34+1,Balance!E:K,2,FALSE)</f>
+        <v>1설</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E34" s="1">
+        <f>VLOOKUP(A34+1,Balance!E:K,7,FALSE)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <f>VLOOKUP(A35+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000001E+132</v>
+      </c>
+      <c r="C35" t="str">
+        <f>VLOOKUP(A35+1,Balance!E:K,2,FALSE)</f>
+        <v>5설</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E35" s="1">
+        <f>VLOOKUP(A35+1,Balance!E:K,7,FALSE)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <f>VLOOKUP(A36+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+133</v>
+      </c>
+      <c r="C36" t="str">
+        <f>VLOOKUP(A36+1,Balance!E:K,2,FALSE)</f>
+        <v>10설</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E36" s="1">
+        <f>VLOOKUP(A36+1,Balance!E:K,7,FALSE)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <f>VLOOKUP(A37+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999996E+133</v>
+      </c>
+      <c r="C37" t="str">
+        <f>VLOOKUP(A37+1,Balance!E:K,2,FALSE)</f>
+        <v>50설</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E37" s="1">
+        <f>VLOOKUP(A37+1,Balance!E:K,7,FALSE)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <f>VLOOKUP(A38+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999992E+133</v>
+      </c>
+      <c r="C38" t="str">
+        <f>VLOOKUP(A38+1,Balance!E:K,2,FALSE)</f>
+        <v>100설</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E38" s="1">
+        <f>VLOOKUP(A38+1,Balance!E:K,7,FALSE)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <f>VLOOKUP(A39+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999998E+134</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP(A39+1,Balance!E:K,2,FALSE)</f>
+        <v>500설</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E39" s="1">
+        <f>VLOOKUP(A39+1,Balance!E:K,7,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <f>VLOOKUP(A40+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999996E+134</v>
+      </c>
+      <c r="C40" t="str">
+        <f>VLOOKUP(A40+1,Balance!E:K,2,FALSE)</f>
+        <v>1000설</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E40" s="1">
+        <f>VLOOKUP(A40+1,Balance!E:K,7,FALSE)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1320,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879355A5-73CC-4381-AE56-05DD60810F90}">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1414,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>7</v>
@@ -2502,7 +2922,7 @@
       </c>
       <c r="F33" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>1a</v>
+        <v>1위</v>
       </c>
       <c r="G33" s="19">
         <f t="shared" si="4"/>
@@ -2513,7 +2933,7 @@
       </c>
       <c r="I33" s="18" t="str" cm="1">
         <f t="array" ref="I33">IF(AND(H32&gt;100,H33&lt;100),INDEX(M:M,MATCH(I32,M:M,0)+1,0),I32)</f>
-        <v>a</v>
+        <v>위</v>
       </c>
       <c r="J33" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2553,7 +2973,7 @@
       </c>
       <c r="F34" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>5a</v>
+        <v>5위</v>
       </c>
       <c r="G34" s="19">
         <f t="shared" si="4"/>
@@ -2564,7 +2984,7 @@
       </c>
       <c r="I34" s="18" t="str" cm="1">
         <f t="array" ref="I34">IF(AND(H33&gt;100,H34&lt;100),INDEX(M:M,MATCH(I33,M:M,0)+1,0),I33)</f>
-        <v>a</v>
+        <v>위</v>
       </c>
       <c r="J34" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2604,7 +3024,7 @@
       </c>
       <c r="F35" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>10a</v>
+        <v>10위</v>
       </c>
       <c r="G35" s="19">
         <f t="shared" si="4"/>
@@ -2615,14 +3035,14 @@
       </c>
       <c r="I35" s="18" t="str" cm="1">
         <f t="array" ref="I35">IF(AND(H34&gt;100,H35&lt;100),INDEX(M:M,MATCH(I34,M:M,0)+1,0),I34)</f>
-        <v>a</v>
+        <v>위</v>
       </c>
       <c r="J35" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+128</v>
       </c>
       <c r="K35" s="11">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="L35" s="13"/>
       <c r="M35" s="18" t="s">
@@ -2655,7 +3075,7 @@
       </c>
       <c r="F36" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>50a</v>
+        <v>50위</v>
       </c>
       <c r="G36" s="19">
         <f t="shared" si="4"/>
@@ -2666,14 +3086,14 @@
       </c>
       <c r="I36" s="18" t="str" cm="1">
         <f t="array" ref="I36">IF(AND(H35&gt;100,H36&lt;100),INDEX(M:M,MATCH(I35,M:M,0)+1,0),I35)</f>
-        <v>a</v>
+        <v>위</v>
       </c>
       <c r="J36" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+128</v>
       </c>
       <c r="K36" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="18" t="s">
@@ -2706,7 +3126,7 @@
       </c>
       <c r="F37" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>100a</v>
+        <v>100위</v>
       </c>
       <c r="G37" s="19">
         <f t="shared" si="4"/>
@@ -2717,14 +3137,14 @@
       </c>
       <c r="I37" s="18" t="str" cm="1">
         <f t="array" ref="I37">IF(AND(H36&gt;100,H37&lt;100),INDEX(M:M,MATCH(I36,M:M,0)+1,0),I36)</f>
-        <v>a</v>
+        <v>위</v>
       </c>
       <c r="J37" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+128</v>
       </c>
       <c r="K37" s="11">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="L37" s="13"/>
       <c r="M37" s="18" t="s">
@@ -2757,7 +3177,7 @@
       </c>
       <c r="F38" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>500a</v>
+        <v>500위</v>
       </c>
       <c r="G38" s="19">
         <f t="shared" si="4"/>
@@ -2768,14 +3188,14 @@
       </c>
       <c r="I38" s="18" t="str" cm="1">
         <f t="array" ref="I38">IF(AND(H37&gt;100,H38&lt;100),INDEX(M:M,MATCH(I37,M:M,0)+1,0),I37)</f>
-        <v>a</v>
+        <v>위</v>
       </c>
       <c r="J38" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+128</v>
       </c>
       <c r="K38" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L38" s="13"/>
       <c r="M38" s="18" t="s">
@@ -2808,7 +3228,7 @@
       </c>
       <c r="F39" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>1000a</v>
+        <v>1000위</v>
       </c>
       <c r="G39" s="19">
         <f t="shared" si="4"/>
@@ -2819,18 +3239,18 @@
       </c>
       <c r="I39" s="18" t="str" cm="1">
         <f t="array" ref="I39">IF(AND(H38&gt;100,H39&lt;100),INDEX(M:M,MATCH(I38,M:M,0)+1,0),I38)</f>
-        <v>a</v>
+        <v>위</v>
       </c>
       <c r="J39" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+128</v>
       </c>
       <c r="K39" s="11">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="L39" s="13"/>
       <c r="M39" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N39" s="18">
         <v>128</v>
@@ -2859,7 +3279,7 @@
       </c>
       <c r="F40" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>5000a</v>
+        <v>5000위</v>
       </c>
       <c r="G40" s="19">
         <f t="shared" si="4"/>
@@ -2870,17 +3290,17 @@
       </c>
       <c r="I40" s="18" t="str" cm="1">
         <f t="array" ref="I40">IF(AND(H39&gt;100,H40&lt;100),INDEX(M:M,MATCH(I39,M:M,0)+1,0),I39)</f>
-        <v>a</v>
+        <v>위</v>
       </c>
       <c r="J40" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+128</v>
       </c>
       <c r="K40" s="11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N40" s="18">
         <v>132</v>
@@ -2909,7 +3329,7 @@
       </c>
       <c r="F41" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>1b</v>
+        <v>1설</v>
       </c>
       <c r="G41" s="19">
         <f t="shared" si="4"/>
@@ -2920,17 +3340,17 @@
       </c>
       <c r="I41" s="18" t="str" cm="1">
         <f t="array" ref="I41">IF(AND(H40&gt;100,H41&lt;100),INDEX(M:M,MATCH(I40,M:M,0)+1,0),I40)</f>
-        <v>b</v>
+        <v>설</v>
       </c>
       <c r="J41" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+132</v>
       </c>
       <c r="K41" s="11">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N41" s="18">
         <v>136</v>
@@ -2959,7 +3379,7 @@
       </c>
       <c r="F42" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>5b</v>
+        <v>5설</v>
       </c>
       <c r="G42" s="19">
         <f t="shared" si="4"/>
@@ -2970,14 +3390,14 @@
       </c>
       <c r="I42" s="18" t="str" cm="1">
         <f t="array" ref="I42">IF(AND(H41&gt;100,H42&lt;100),INDEX(M:M,MATCH(I41,M:M,0)+1,0),I41)</f>
-        <v>b</v>
+        <v>설</v>
       </c>
       <c r="J42" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+132</v>
       </c>
       <c r="K42" s="11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
@@ -2997,7 +3417,7 @@
       </c>
       <c r="F43" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>10b</v>
+        <v>10설</v>
       </c>
       <c r="G43" s="19">
         <f t="shared" si="4"/>
@@ -3008,14 +3428,14 @@
       </c>
       <c r="I43" s="18" t="str" cm="1">
         <f t="array" ref="I43">IF(AND(H42&gt;100,H43&lt;100),INDEX(M:M,MATCH(I42,M:M,0)+1,0),I42)</f>
-        <v>b</v>
+        <v>설</v>
       </c>
       <c r="J43" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+132</v>
       </c>
       <c r="K43" s="11">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
@@ -3035,7 +3455,7 @@
       </c>
       <c r="F44" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>50b</v>
+        <v>50설</v>
       </c>
       <c r="G44" s="19">
         <f t="shared" si="4"/>
@@ -3046,14 +3466,14 @@
       </c>
       <c r="I44" s="18" t="str" cm="1">
         <f t="array" ref="I44">IF(AND(H43&gt;100,H44&lt;100),INDEX(M:M,MATCH(I43,M:M,0)+1,0),I43)</f>
-        <v>b</v>
+        <v>설</v>
       </c>
       <c r="J44" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+132</v>
       </c>
       <c r="K44" s="11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
@@ -3073,7 +3493,7 @@
       </c>
       <c r="F45" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>100b</v>
+        <v>100설</v>
       </c>
       <c r="G45" s="19">
         <f t="shared" si="4"/>
@@ -3084,14 +3504,14 @@
       </c>
       <c r="I45" s="18" t="str" cm="1">
         <f t="array" ref="I45">IF(AND(H44&gt;100,H45&lt;100),INDEX(M:M,MATCH(I44,M:M,0)+1,0),I44)</f>
-        <v>b</v>
+        <v>설</v>
       </c>
       <c r="J45" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+132</v>
       </c>
       <c r="K45" s="11">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
@@ -3111,7 +3531,7 @@
       </c>
       <c r="F46" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>500b</v>
+        <v>500설</v>
       </c>
       <c r="G46" s="19">
         <f t="shared" si="4"/>
@@ -3122,14 +3542,14 @@
       </c>
       <c r="I46" s="18" t="str" cm="1">
         <f t="array" ref="I46">IF(AND(H45&gt;100,H46&lt;100),INDEX(M:M,MATCH(I45,M:M,0)+1,0),I45)</f>
-        <v>b</v>
+        <v>설</v>
       </c>
       <c r="J46" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+132</v>
       </c>
       <c r="K46" s="11">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
@@ -3149,7 +3569,7 @@
       </c>
       <c r="F47" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>1000b</v>
+        <v>1000설</v>
       </c>
       <c r="G47" s="19">
         <f t="shared" si="4"/>
@@ -3160,14 +3580,14 @@
       </c>
       <c r="I47" s="18" t="str" cm="1">
         <f t="array" ref="I47">IF(AND(H46&gt;100,H47&lt;100),INDEX(M:M,MATCH(I46,M:M,0)+1,0),I46)</f>
-        <v>b</v>
+        <v>설</v>
       </c>
       <c r="J47" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+132</v>
       </c>
       <c r="K47" s="11">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
@@ -3187,7 +3607,7 @@
       </c>
       <c r="F48" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>5000b</v>
+        <v>5000설</v>
       </c>
       <c r="G48" s="19">
         <f t="shared" si="4"/>
@@ -3198,14 +3618,14 @@
       </c>
       <c r="I48" s="18" t="str" cm="1">
         <f t="array" ref="I48">IF(AND(H47&gt;100,H48&lt;100),INDEX(M:M,MATCH(I47,M:M,0)+1,0),I47)</f>
-        <v>b</v>
+        <v>설</v>
       </c>
       <c r="J48" s="18" t="str">
         <f t="shared" si="0"/>
         <v>1E+132</v>
       </c>
       <c r="K48" s="11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -3243,7 +3663,7 @@
         <v>1E+136</v>
       </c>
       <c r="K49" s="11">
-        <v>20.5</v>
+        <v>28</v>
       </c>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
@@ -3281,7 +3701,7 @@
         <v>1E+136</v>
       </c>
       <c r="K50" s="11">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
@@ -3319,7 +3739,7 @@
         <v>1E+136</v>
       </c>
       <c r="K51" s="11">
-        <v>21.5</v>
+        <v>30</v>
       </c>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
@@ -3357,7 +3777,7 @@
         <v>1E+136</v>
       </c>
       <c r="K52" s="11">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
@@ -3395,7 +3815,7 @@
         <v>1E+136</v>
       </c>
       <c r="K53" s="11">
-        <v>22.5</v>
+        <v>32</v>
       </c>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
@@ -3433,7 +3853,7 @@
         <v>1E+136</v>
       </c>
       <c r="K54" s="11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
@@ -3471,7 +3891,7 @@
         <v>1E+136</v>
       </c>
       <c r="K55" s="11">
-        <v>23.5</v>
+        <v>34</v>
       </c>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
@@ -3509,7 +3929,7 @@
         <v>1E+136</v>
       </c>
       <c r="K56" s="11">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>

--- a/Assets/06.Table/RelicTest.xlsx
+++ b/Assets/06.Table/RelicTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C035666-4CAC-4D7E-842D-E721B8C81F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FCE765-EEE3-49D9-B241-702DD3FA00A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTest" sheetId="1" r:id="rId1"/>
@@ -283,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abiValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +292,10 @@
   </si>
   <si>
     <t>설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,11 +879,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,7 +965,7 @@
         <v>10섬</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D40" si="0">D3</f>
+        <f t="shared" ref="D4:D49" si="0">D3</f>
         <v>-1</v>
       </c>
       <c r="E4" s="1">
@@ -1727,6 +1727,195 @@
       <c r="E40" s="1">
         <f>VLOOKUP(A40+1,Balance!E:K,7,FALSE)</f>
         <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <f>VLOOKUP(A41+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999996E+135</v>
+      </c>
+      <c r="C41" t="str">
+        <f>VLOOKUP(A41+1,Balance!E:K,2,FALSE)</f>
+        <v>5000설</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E41" s="1">
+        <f>VLOOKUP(A41+1,Balance!E:K,7,FALSE)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <f>VLOOKUP(A42+1,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="C42" t="str">
+        <f>VLOOKUP(A42+1,Balance!E:K,2,FALSE)</f>
+        <v>1적</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E42" s="1">
+        <f>VLOOKUP(A42+1,Balance!E:K,7,FALSE)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <f>VLOOKUP(A43+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+136</v>
+      </c>
+      <c r="C43" t="str">
+        <f>VLOOKUP(A43+1,Balance!E:K,2,FALSE)</f>
+        <v>5적</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E43" s="1">
+        <f>VLOOKUP(A43+1,Balance!E:K,7,FALSE)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <f>VLOOKUP(A44+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+137</v>
+      </c>
+      <c r="C44" t="str">
+        <f>VLOOKUP(A44+1,Balance!E:K,2,FALSE)</f>
+        <v>10적</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E44" s="1">
+        <f>VLOOKUP(A44+1,Balance!E:K,7,FALSE)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <f>VLOOKUP(A45+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+137</v>
+      </c>
+      <c r="C45" t="str">
+        <f>VLOOKUP(A45+1,Balance!E:K,2,FALSE)</f>
+        <v>50적</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E45" s="1">
+        <f>VLOOKUP(A45+1,Balance!E:K,7,FALSE)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <f>VLOOKUP(A46+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+138</v>
+      </c>
+      <c r="C46" t="str">
+        <f>VLOOKUP(A46+1,Balance!E:K,2,FALSE)</f>
+        <v>100적</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E46" s="1">
+        <f>VLOOKUP(A46+1,Balance!E:K,7,FALSE)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <f>VLOOKUP(A47+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+138</v>
+      </c>
+      <c r="C47" t="str">
+        <f>VLOOKUP(A47+1,Balance!E:K,2,FALSE)</f>
+        <v>500적</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E47" s="1">
+        <f>VLOOKUP(A47+1,Balance!E:K,7,FALSE)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <f>VLOOKUP(A48+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+139</v>
+      </c>
+      <c r="C48" t="str">
+        <f>VLOOKUP(A48+1,Balance!E:K,2,FALSE)</f>
+        <v>1000적</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E48" s="1">
+        <f>VLOOKUP(A48+1,Balance!E:K,7,FALSE)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <f>VLOOKUP(A49+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000003E+139</v>
+      </c>
+      <c r="C49" t="str">
+        <f>VLOOKUP(A49+1,Balance!E:K,2,FALSE)</f>
+        <v>5000적</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E49" s="1">
+        <f>VLOOKUP(A49+1,Balance!E:K,7,FALSE)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1740,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879355A5-73CC-4381-AE56-05DD60810F90}">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1834,7 +2023,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>7</v>
@@ -3250,7 +3439,7 @@
       </c>
       <c r="L39" s="13"/>
       <c r="M39" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N39" s="18">
         <v>128</v>
@@ -3300,7 +3489,7 @@
         <v>19</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N40" s="18">
         <v>132</v>
@@ -3350,7 +3539,7 @@
         <v>20</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N41" s="18">
         <v>136</v>
@@ -3645,7 +3834,7 @@
       </c>
       <c r="F49" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>1c</v>
+        <v>1적</v>
       </c>
       <c r="G49" s="19">
         <f t="shared" si="4"/>
@@ -3656,7 +3845,7 @@
       </c>
       <c r="I49" s="18" t="str" cm="1">
         <f t="array" ref="I49">IF(AND(H48&gt;100,H49&lt;100),INDEX(M:M,MATCH(I48,M:M,0)+1,0),I48)</f>
-        <v>c</v>
+        <v>적</v>
       </c>
       <c r="J49" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3683,7 +3872,7 @@
       </c>
       <c r="F50" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>5c</v>
+        <v>5적</v>
       </c>
       <c r="G50" s="19">
         <f t="shared" si="4"/>
@@ -3694,7 +3883,7 @@
       </c>
       <c r="I50" s="18" t="str" cm="1">
         <f t="array" ref="I50">IF(AND(H49&gt;100,H50&lt;100),INDEX(M:M,MATCH(I49,M:M,0)+1,0),I49)</f>
-        <v>c</v>
+        <v>적</v>
       </c>
       <c r="J50" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3721,7 +3910,7 @@
       </c>
       <c r="F51" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>10c</v>
+        <v>10적</v>
       </c>
       <c r="G51" s="19">
         <f t="shared" si="4"/>
@@ -3732,7 +3921,7 @@
       </c>
       <c r="I51" s="18" t="str" cm="1">
         <f t="array" ref="I51">IF(AND(H50&gt;100,H51&lt;100),INDEX(M:M,MATCH(I50,M:M,0)+1,0),I50)</f>
-        <v>c</v>
+        <v>적</v>
       </c>
       <c r="J51" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3759,7 +3948,7 @@
       </c>
       <c r="F52" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>50c</v>
+        <v>50적</v>
       </c>
       <c r="G52" s="19">
         <f t="shared" si="4"/>
@@ -3770,7 +3959,7 @@
       </c>
       <c r="I52" s="18" t="str" cm="1">
         <f t="array" ref="I52">IF(AND(H51&gt;100,H52&lt;100),INDEX(M:M,MATCH(I51,M:M,0)+1,0),I51)</f>
-        <v>c</v>
+        <v>적</v>
       </c>
       <c r="J52" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3797,7 +3986,7 @@
       </c>
       <c r="F53" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>100c</v>
+        <v>100적</v>
       </c>
       <c r="G53" s="19">
         <f t="shared" si="4"/>
@@ -3808,7 +3997,7 @@
       </c>
       <c r="I53" s="18" t="str" cm="1">
         <f t="array" ref="I53">IF(AND(H52&gt;100,H53&lt;100),INDEX(M:M,MATCH(I52,M:M,0)+1,0),I52)</f>
-        <v>c</v>
+        <v>적</v>
       </c>
       <c r="J53" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3835,7 +4024,7 @@
       </c>
       <c r="F54" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>500c</v>
+        <v>500적</v>
       </c>
       <c r="G54" s="19">
         <f t="shared" si="4"/>
@@ -3846,7 +4035,7 @@
       </c>
       <c r="I54" s="18" t="str" cm="1">
         <f t="array" ref="I54">IF(AND(H53&gt;100,H54&lt;100),INDEX(M:M,MATCH(I53,M:M,0)+1,0),I53)</f>
-        <v>c</v>
+        <v>적</v>
       </c>
       <c r="J54" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3873,7 +4062,7 @@
       </c>
       <c r="F55" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>1000c</v>
+        <v>1000적</v>
       </c>
       <c r="G55" s="19">
         <f t="shared" si="4"/>
@@ -3884,7 +4073,7 @@
       </c>
       <c r="I55" s="18" t="str" cm="1">
         <f t="array" ref="I55">IF(AND(H54&gt;100,H55&lt;100),INDEX(M:M,MATCH(I54,M:M,0)+1,0),I54)</f>
-        <v>c</v>
+        <v>적</v>
       </c>
       <c r="J55" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3911,7 +4100,7 @@
       </c>
       <c r="F56" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>5000c</v>
+        <v>5000적</v>
       </c>
       <c r="G56" s="19">
         <f t="shared" si="4"/>
@@ -3922,7 +4111,7 @@
       </c>
       <c r="I56" s="18" t="str" cm="1">
         <f t="array" ref="I56">IF(AND(H55&gt;100,H56&lt;100),INDEX(M:M,MATCH(I55,M:M,0)+1,0),I55)</f>
-        <v>c</v>
+        <v>적</v>
       </c>
       <c r="J56" s="18" t="str">
         <f t="shared" si="0"/>

--- a/Assets/06.Table/RelicTest.xlsx
+++ b/Assets/06.Table/RelicTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FCE765-EEE3-49D9-B241-702DD3FA00A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB57520-3EC8-46D6-B735-EDF5BD40C92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTest" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,10 @@
   </si>
   <si>
     <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,11 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,7 +969,7 @@
         <v>10섬</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D49" si="0">D3</f>
+        <f t="shared" ref="D4:D57" si="0">D3</f>
         <v>-1</v>
       </c>
       <c r="E4" s="1">
@@ -1916,6 +1920,174 @@
       <c r="E49" s="1">
         <f>VLOOKUP(A49+1,Balance!E:K,7,FALSE)</f>
         <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <f>VLOOKUP(A50+1,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="C50" t="str">
+        <f>VLOOKUP(A50+1,Balance!E:K,2,FALSE)</f>
+        <v>1고</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E50" s="1">
+        <f>VLOOKUP(A50+1,Balance!E:K,7,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <f>VLOOKUP(A51+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000001E+140</v>
+      </c>
+      <c r="C51" t="str">
+        <f>VLOOKUP(A51+1,Balance!E:K,2,FALSE)</f>
+        <v>5고</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E51" s="1">
+        <f>VLOOKUP(A51+1,Balance!E:K,7,FALSE)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <f>VLOOKUP(A52+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+141</v>
+      </c>
+      <c r="C52" t="str">
+        <f>VLOOKUP(A52+1,Balance!E:K,2,FALSE)</f>
+        <v>10고</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E52" s="1">
+        <f>VLOOKUP(A52+1,Balance!E:K,7,FALSE)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <f>VLOOKUP(A53+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000003E+141</v>
+      </c>
+      <c r="C53" t="str">
+        <f>VLOOKUP(A53+1,Balance!E:K,2,FALSE)</f>
+        <v>50고</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E53" s="1">
+        <f>VLOOKUP(A53+1,Balance!E:K,7,FALSE)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <f>VLOOKUP(A54+1,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+142</v>
+      </c>
+      <c r="C54" t="str">
+        <f>VLOOKUP(A54+1,Balance!E:K,2,FALSE)</f>
+        <v>100고</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E54" s="1">
+        <f>VLOOKUP(A54+1,Balance!E:K,7,FALSE)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <f>VLOOKUP(A55+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000001E+142</v>
+      </c>
+      <c r="C55" t="str">
+        <f>VLOOKUP(A55+1,Balance!E:K,2,FALSE)</f>
+        <v>500고</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E55" s="1">
+        <f>VLOOKUP(A55+1,Balance!E:K,7,FALSE)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <f>VLOOKUP(A56+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+143</v>
+      </c>
+      <c r="C56" t="str">
+        <f>VLOOKUP(A56+1,Balance!E:K,2,FALSE)</f>
+        <v>1000고</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E56" s="1">
+        <f>VLOOKUP(A56+1,Balance!E:K,7,FALSE)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <f>VLOOKUP(A57+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000001E+143</v>
+      </c>
+      <c r="C57" t="str">
+        <f>VLOOKUP(A57+1,Balance!E:K,2,FALSE)</f>
+        <v>5000고</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E57" s="1">
+        <f>VLOOKUP(A57+1,Balance!E:K,7,FALSE)</f>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1927,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879355A5-73CC-4381-AE56-05DD60810F90}">
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3588,8 +3760,20 @@
       <c r="K42" s="11">
         <v>21</v>
       </c>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
+      <c r="M42" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" s="18">
+        <v>140</v>
+      </c>
+      <c r="O42" s="19">
+        <f t="shared" ref="O42" si="8">POWER(10,N42)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="P42" s="19" t="str">
+        <f t="shared" ref="P42" si="9">RIGHT(O42,N42)</f>
+        <v>1E+140</v>
+      </c>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
@@ -4132,6 +4316,222 @@
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
     </row>
+    <row r="57" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E57" s="18">
+        <v>49</v>
+      </c>
+      <c r="F57" s="19" t="str">
+        <f t="shared" ref="F57:F64" si="10">H57&amp;I57</f>
+        <v>1고</v>
+      </c>
+      <c r="G57" s="19">
+        <f t="shared" ref="G57:G64" si="11">H57*J57</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="H57" s="19">
+        <v>1</v>
+      </c>
+      <c r="I57" s="18" t="str" cm="1">
+        <f t="array" ref="I57">IF(AND(H56&gt;100,H57&lt;100),INDEX(M:M,MATCH(I56,M:M,0)+1,0),I56)</f>
+        <v>고</v>
+      </c>
+      <c r="J57" s="18" t="str">
+        <f t="shared" ref="J57:J64" si="12">VLOOKUP(I57,M:P,4,FALSE)</f>
+        <v>1E+140</v>
+      </c>
+      <c r="K57" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E58" s="18">
+        <v>50</v>
+      </c>
+      <c r="F58" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>5고</v>
+      </c>
+      <c r="G58" s="19">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E+140</v>
+      </c>
+      <c r="H58" s="19">
+        <v>5</v>
+      </c>
+      <c r="I58" s="18" t="str" cm="1">
+        <f t="array" ref="I58">IF(AND(H57&gt;100,H58&lt;100),INDEX(M:M,MATCH(I57,M:M,0)+1,0),I57)</f>
+        <v>고</v>
+      </c>
+      <c r="J58" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K58" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E59" s="18">
+        <v>51</v>
+      </c>
+      <c r="F59" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>10고</v>
+      </c>
+      <c r="G59" s="19">
+        <f t="shared" si="11"/>
+        <v>1E+141</v>
+      </c>
+      <c r="H59" s="19">
+        <v>10</v>
+      </c>
+      <c r="I59" s="18" t="str" cm="1">
+        <f t="array" ref="I59">IF(AND(H58&gt;100,H59&lt;100),INDEX(M:M,MATCH(I58,M:M,0)+1,0),I58)</f>
+        <v>고</v>
+      </c>
+      <c r="J59" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K59" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E60" s="18">
+        <v>52</v>
+      </c>
+      <c r="F60" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>50고</v>
+      </c>
+      <c r="G60" s="19">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000003E+141</v>
+      </c>
+      <c r="H60" s="19">
+        <v>50</v>
+      </c>
+      <c r="I60" s="18" t="str" cm="1">
+        <f t="array" ref="I60">IF(AND(H59&gt;100,H60&lt;100),INDEX(M:M,MATCH(I59,M:M,0)+1,0),I59)</f>
+        <v>고</v>
+      </c>
+      <c r="J60" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K60" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E61" s="18">
+        <v>53</v>
+      </c>
+      <c r="F61" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>100고</v>
+      </c>
+      <c r="G61" s="19">
+        <f t="shared" si="11"/>
+        <v>1.0000000000000001E+142</v>
+      </c>
+      <c r="H61" s="19">
+        <v>100</v>
+      </c>
+      <c r="I61" s="18" t="str" cm="1">
+        <f t="array" ref="I61">IF(AND(H60&gt;100,H61&lt;100),INDEX(M:M,MATCH(I60,M:M,0)+1,0),I60)</f>
+        <v>고</v>
+      </c>
+      <c r="J61" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K61" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E62" s="18">
+        <v>54</v>
+      </c>
+      <c r="F62" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>500고</v>
+      </c>
+      <c r="G62" s="19">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E+142</v>
+      </c>
+      <c r="H62" s="19">
+        <v>500</v>
+      </c>
+      <c r="I62" s="18" t="str" cm="1">
+        <f t="array" ref="I62">IF(AND(H61&gt;100,H62&lt;100),INDEX(M:M,MATCH(I61,M:M,0)+1,0),I61)</f>
+        <v>고</v>
+      </c>
+      <c r="J62" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K62" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E63" s="18">
+        <v>55</v>
+      </c>
+      <c r="F63" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>1000고</v>
+      </c>
+      <c r="G63" s="19">
+        <f t="shared" si="11"/>
+        <v>1E+143</v>
+      </c>
+      <c r="H63" s="19">
+        <v>1000</v>
+      </c>
+      <c r="I63" s="18" t="str" cm="1">
+        <f t="array" ref="I63">IF(AND(H62&gt;100,H63&lt;100),INDEX(M:M,MATCH(I62,M:M,0)+1,0),I62)</f>
+        <v>고</v>
+      </c>
+      <c r="J63" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K63" s="11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E64" s="18">
+        <v>56</v>
+      </c>
+      <c r="F64" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>5000고</v>
+      </c>
+      <c r="G64" s="19">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E+143</v>
+      </c>
+      <c r="H64" s="19">
+        <v>5000</v>
+      </c>
+      <c r="I64" s="18" t="str" cm="1">
+        <f t="array" ref="I64">IF(AND(H63&gt;100,H64&lt;100),INDEX(M:M,MATCH(I63,M:M,0)+1,0),I63)</f>
+        <v>고</v>
+      </c>
+      <c r="J64" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K64" s="11">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B2"/>

--- a/Assets/06.Table/RelicTest.xlsx
+++ b/Assets/06.Table/RelicTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB57520-3EC8-46D6-B735-EDF5BD40C92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D5009-EA14-4389-8B85-69DC5A97EC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTest" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,11 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -969,7 +973,7 @@
         <v>10섬</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D57" si="0">D3</f>
+        <f t="shared" ref="D4:D65" si="0">D3</f>
         <v>-1</v>
       </c>
       <c r="E4" s="1">
@@ -2088,6 +2092,174 @@
       <c r="E57" s="1">
         <f>VLOOKUP(A57+1,Balance!E:K,7,FALSE)</f>
         <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <f>VLOOKUP(A58+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="C58" t="str">
+        <f>VLOOKUP(A58+1,Balance!E:K,2,FALSE)</f>
+        <v>1화</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E58" s="1">
+        <f>VLOOKUP(A58+1,Balance!E:K,7,FALSE)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <f>VLOOKUP(A59+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999999E+144</v>
+      </c>
+      <c r="C59" t="str">
+        <f>VLOOKUP(A59+1,Balance!E:K,2,FALSE)</f>
+        <v>5화</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E59" s="1">
+        <f>VLOOKUP(A59+1,Balance!E:K,7,FALSE)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <f>VLOOKUP(A60+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999999E+144</v>
+      </c>
+      <c r="C60" t="str">
+        <f>VLOOKUP(A60+1,Balance!E:K,2,FALSE)</f>
+        <v>10화</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E60" s="1">
+        <f>VLOOKUP(A60+1,Balance!E:K,7,FALSE)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <f>VLOOKUP(A61+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999997E+145</v>
+      </c>
+      <c r="C61" t="str">
+        <f>VLOOKUP(A61+1,Balance!E:K,2,FALSE)</f>
+        <v>50화</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E61" s="1">
+        <f>VLOOKUP(A61+1,Balance!E:K,7,FALSE)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <f>VLOOKUP(A62+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="C62" t="str">
+        <f>VLOOKUP(A62+1,Balance!E:K,2,FALSE)</f>
+        <v>100화</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E62" s="1">
+        <f>VLOOKUP(A62+1,Balance!E:K,7,FALSE)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <f>VLOOKUP(A63+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999999E+146</v>
+      </c>
+      <c r="C63" t="str">
+        <f>VLOOKUP(A63+1,Balance!E:K,2,FALSE)</f>
+        <v>500화</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E63" s="1">
+        <f>VLOOKUP(A63+1,Balance!E:K,7,FALSE)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <f>VLOOKUP(A64+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+146</v>
+      </c>
+      <c r="C64" t="str">
+        <f>VLOOKUP(A64+1,Balance!E:K,2,FALSE)</f>
+        <v>1000화</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E64" s="1">
+        <f>VLOOKUP(A64+1,Balance!E:K,7,FALSE)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <f>VLOOKUP(A65+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+147</v>
+      </c>
+      <c r="C65" t="str">
+        <f>VLOOKUP(A65+1,Balance!E:K,2,FALSE)</f>
+        <v>5000화</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E65" s="1">
+        <f>VLOOKUP(A65+1,Balance!E:K,7,FALSE)</f>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2099,10 +2271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879355A5-73CC-4381-AE56-05DD60810F90}">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3810,8 +3982,20 @@
       <c r="K43" s="11">
         <v>22</v>
       </c>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
+      <c r="M43" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N43" s="18">
+        <v>144</v>
+      </c>
+      <c r="O43" s="19">
+        <f t="shared" ref="O43" si="10">POWER(10,N43)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="P43" s="19" t="str">
+        <f t="shared" ref="P43" si="11">RIGHT(O43,N43)</f>
+        <v>1E+144</v>
+      </c>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
@@ -4321,11 +4505,11 @@
         <v>49</v>
       </c>
       <c r="F57" s="19" t="str">
-        <f t="shared" ref="F57:F64" si="10">H57&amp;I57</f>
+        <f t="shared" ref="F57:F64" si="12">H57&amp;I57</f>
         <v>1고</v>
       </c>
       <c r="G57" s="19">
-        <f t="shared" ref="G57:G64" si="11">H57*J57</f>
+        <f t="shared" ref="G57:G64" si="13">H57*J57</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H57" s="19">
@@ -4336,7 +4520,7 @@
         <v>고</v>
       </c>
       <c r="J57" s="18" t="str">
-        <f t="shared" ref="J57:J64" si="12">VLOOKUP(I57,M:P,4,FALSE)</f>
+        <f t="shared" ref="J57:J64" si="14">VLOOKUP(I57,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K57" s="11">
@@ -4348,11 +4532,11 @@
         <v>50</v>
       </c>
       <c r="F58" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5고</v>
       </c>
       <c r="G58" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H58" s="19">
@@ -4363,7 +4547,7 @@
         <v>고</v>
       </c>
       <c r="J58" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+140</v>
       </c>
       <c r="K58" s="11">
@@ -4375,11 +4559,11 @@
         <v>51</v>
       </c>
       <c r="F59" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10고</v>
       </c>
       <c r="G59" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+141</v>
       </c>
       <c r="H59" s="19">
@@ -4390,7 +4574,7 @@
         <v>고</v>
       </c>
       <c r="J59" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+140</v>
       </c>
       <c r="K59" s="11">
@@ -4402,11 +4586,11 @@
         <v>52</v>
       </c>
       <c r="F60" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>50고</v>
       </c>
       <c r="G60" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H60" s="19">
@@ -4417,7 +4601,7 @@
         <v>고</v>
       </c>
       <c r="J60" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+140</v>
       </c>
       <c r="K60" s="11">
@@ -4429,11 +4613,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100고</v>
       </c>
       <c r="G61" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H61" s="19">
@@ -4444,7 +4628,7 @@
         <v>고</v>
       </c>
       <c r="J61" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+140</v>
       </c>
       <c r="K61" s="11">
@@ -4456,11 +4640,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>500고</v>
       </c>
       <c r="G62" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H62" s="19">
@@ -4471,7 +4655,7 @@
         <v>고</v>
       </c>
       <c r="J62" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+140</v>
       </c>
       <c r="K62" s="11">
@@ -4483,11 +4667,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000고</v>
       </c>
       <c r="G63" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E+143</v>
       </c>
       <c r="H63" s="19">
@@ -4498,7 +4682,7 @@
         <v>고</v>
       </c>
       <c r="J63" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+140</v>
       </c>
       <c r="K63" s="11">
@@ -4510,11 +4694,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5000고</v>
       </c>
       <c r="G64" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H64" s="19">
@@ -4525,11 +4709,227 @@
         <v>고</v>
       </c>
       <c r="J64" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+140</v>
       </c>
       <c r="K64" s="11">
         <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E65" s="18">
+        <v>57</v>
+      </c>
+      <c r="F65" s="19" t="str">
+        <f t="shared" ref="F65:F72" si="15">H65&amp;I65</f>
+        <v>1화</v>
+      </c>
+      <c r="G65" s="19">
+        <f t="shared" ref="G65:G72" si="16">H65*J65</f>
+        <v>1E+144</v>
+      </c>
+      <c r="H65" s="19">
+        <v>1</v>
+      </c>
+      <c r="I65" s="18" t="str" cm="1">
+        <f t="array" ref="I65">IF(AND(H64&gt;100,H65&lt;100),INDEX(M:M,MATCH(I64,M:M,0)+1,0),I64)</f>
+        <v>화</v>
+      </c>
+      <c r="J65" s="18" t="str">
+        <f t="shared" ref="J65:J72" si="17">VLOOKUP(I65,M:P,4,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="K65" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E66" s="18">
+        <v>58</v>
+      </c>
+      <c r="F66" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>5화</v>
+      </c>
+      <c r="G66" s="19">
+        <f t="shared" si="16"/>
+        <v>4.9999999999999999E+144</v>
+      </c>
+      <c r="H66" s="19">
+        <v>5</v>
+      </c>
+      <c r="I66" s="18" t="str" cm="1">
+        <f t="array" ref="I66">IF(AND(H65&gt;100,H66&lt;100),INDEX(M:M,MATCH(I65,M:M,0)+1,0),I65)</f>
+        <v>화</v>
+      </c>
+      <c r="J66" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K66" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E67" s="18">
+        <v>59</v>
+      </c>
+      <c r="F67" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>10화</v>
+      </c>
+      <c r="G67" s="19">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999999E+144</v>
+      </c>
+      <c r="H67" s="19">
+        <v>10</v>
+      </c>
+      <c r="I67" s="18" t="str" cm="1">
+        <f t="array" ref="I67">IF(AND(H66&gt;100,H67&lt;100),INDEX(M:M,MATCH(I66,M:M,0)+1,0),I66)</f>
+        <v>화</v>
+      </c>
+      <c r="J67" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K67" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E68" s="18">
+        <v>60</v>
+      </c>
+      <c r="F68" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>50화</v>
+      </c>
+      <c r="G68" s="19">
+        <f t="shared" si="16"/>
+        <v>4.9999999999999997E+145</v>
+      </c>
+      <c r="H68" s="19">
+        <v>50</v>
+      </c>
+      <c r="I68" s="18" t="str" cm="1">
+        <f t="array" ref="I68">IF(AND(H67&gt;100,H68&lt;100),INDEX(M:M,MATCH(I67,M:M,0)+1,0),I67)</f>
+        <v>화</v>
+      </c>
+      <c r="J68" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K68" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E69" s="18">
+        <v>61</v>
+      </c>
+      <c r="F69" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>100화</v>
+      </c>
+      <c r="G69" s="19">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="H69" s="19">
+        <v>100</v>
+      </c>
+      <c r="I69" s="18" t="str" cm="1">
+        <f t="array" ref="I69">IF(AND(H68&gt;100,H69&lt;100),INDEX(M:M,MATCH(I68,M:M,0)+1,0),I68)</f>
+        <v>화</v>
+      </c>
+      <c r="J69" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K69" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E70" s="18">
+        <v>62</v>
+      </c>
+      <c r="F70" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>500화</v>
+      </c>
+      <c r="G70" s="19">
+        <f t="shared" si="16"/>
+        <v>4.9999999999999999E+146</v>
+      </c>
+      <c r="H70" s="19">
+        <v>500</v>
+      </c>
+      <c r="I70" s="18" t="str" cm="1">
+        <f t="array" ref="I70">IF(AND(H69&gt;100,H70&lt;100),INDEX(M:M,MATCH(I69,M:M,0)+1,0),I69)</f>
+        <v>화</v>
+      </c>
+      <c r="J70" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K70" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E71" s="18">
+        <v>63</v>
+      </c>
+      <c r="F71" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>1000화</v>
+      </c>
+      <c r="G71" s="19">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999998E+146</v>
+      </c>
+      <c r="H71" s="19">
+        <v>1000</v>
+      </c>
+      <c r="I71" s="18" t="str" cm="1">
+        <f t="array" ref="I71">IF(AND(H70&gt;100,H71&lt;100),INDEX(M:M,MATCH(I70,M:M,0)+1,0),I70)</f>
+        <v>화</v>
+      </c>
+      <c r="J71" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K71" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E72" s="18">
+        <v>64</v>
+      </c>
+      <c r="F72" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>5000화</v>
+      </c>
+      <c r="G72" s="19">
+        <f t="shared" si="16"/>
+        <v>5.0000000000000002E+147</v>
+      </c>
+      <c r="H72" s="19">
+        <v>5000</v>
+      </c>
+      <c r="I72" s="18" t="str" cm="1">
+        <f t="array" ref="I72">IF(AND(H71&gt;100,H72&lt;100),INDEX(M:M,MATCH(I71,M:M,0)+1,0),I71)</f>
+        <v>화</v>
+      </c>
+      <c r="J72" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K72" s="11">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTest.xlsx
+++ b/Assets/06.Table/RelicTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D5009-EA14-4389-8B85-69DC5A97EC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4A057E-B6DA-4ECA-9FEB-D200775C24F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,6 +304,10 @@
   </si>
   <si>
     <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,11 +891,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -973,7 +977,7 @@
         <v>10섬</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D65" si="0">D3</f>
+        <f t="shared" ref="D4:D67" si="0">D3</f>
         <v>-1</v>
       </c>
       <c r="E4" s="1">
@@ -2260,6 +2264,174 @@
       <c r="E65" s="1">
         <f>VLOOKUP(A65+1,Balance!E:K,7,FALSE)</f>
         <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <f>VLOOKUP(A66+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="C66" t="str">
+        <f>VLOOKUP(A66+1,Balance!E:K,2,FALSE)</f>
+        <v>1명</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E66" s="1">
+        <f>VLOOKUP(A66+1,Balance!E:K,7,FALSE)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <f>VLOOKUP(A67+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+148</v>
+      </c>
+      <c r="C67" t="str">
+        <f>VLOOKUP(A67+1,Balance!E:K,2,FALSE)</f>
+        <v>5명</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E67" s="1">
+        <f>VLOOKUP(A67+1,Balance!E:K,7,FALSE)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <f>VLOOKUP(A68+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+149</v>
+      </c>
+      <c r="C68" t="str">
+        <f>VLOOKUP(A68+1,Balance!E:K,2,FALSE)</f>
+        <v>10명</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" ref="D68:D73" si="1">D67</f>
+        <v>-1</v>
+      </c>
+      <c r="E68" s="1">
+        <f>VLOOKUP(A68+1,Balance!E:K,7,FALSE)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <f>VLOOKUP(A69+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999999E+149</v>
+      </c>
+      <c r="C69" t="str">
+        <f>VLOOKUP(A69+1,Balance!E:K,2,FALSE)</f>
+        <v>50명</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E69" s="1">
+        <f>VLOOKUP(A69+1,Balance!E:K,7,FALSE)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <f>VLOOKUP(A70+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="C70" t="str">
+        <f>VLOOKUP(A70+1,Balance!E:K,2,FALSE)</f>
+        <v>100명</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E70" s="1">
+        <f>VLOOKUP(A70+1,Balance!E:K,7,FALSE)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <f>VLOOKUP(A71+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000001E+150</v>
+      </c>
+      <c r="C71" t="str">
+        <f>VLOOKUP(A71+1,Balance!E:K,2,FALSE)</f>
+        <v>500명</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E71" s="1">
+        <f>VLOOKUP(A71+1,Balance!E:K,7,FALSE)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <f>VLOOKUP(A72+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+151</v>
+      </c>
+      <c r="C72" t="str">
+        <f>VLOOKUP(A72+1,Balance!E:K,2,FALSE)</f>
+        <v>1000명</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E72" s="1">
+        <f>VLOOKUP(A72+1,Balance!E:K,7,FALSE)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <f>VLOOKUP(A73+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+151</v>
+      </c>
+      <c r="C73" t="str">
+        <f>VLOOKUP(A73+1,Balance!E:K,2,FALSE)</f>
+        <v>5000명</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E73" s="1">
+        <f>VLOOKUP(A73+1,Balance!E:K,7,FALSE)</f>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2271,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879355A5-73CC-4381-AE56-05DD60810F90}">
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4032,8 +4204,20 @@
       <c r="K44" s="11">
         <v>23</v>
       </c>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
+      <c r="M44" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N44" s="18">
+        <v>148</v>
+      </c>
+      <c r="O44" s="19">
+        <f t="shared" ref="O44" si="12">POWER(10,N44)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="P44" s="19" t="str">
+        <f t="shared" ref="P44" si="13">RIGHT(O44,N44)</f>
+        <v>1E+148</v>
+      </c>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
@@ -4505,11 +4689,11 @@
         <v>49</v>
       </c>
       <c r="F57" s="19" t="str">
-        <f t="shared" ref="F57:F64" si="12">H57&amp;I57</f>
+        <f t="shared" ref="F57:F64" si="14">H57&amp;I57</f>
         <v>1고</v>
       </c>
       <c r="G57" s="19">
-        <f t="shared" ref="G57:G64" si="13">H57*J57</f>
+        <f t="shared" ref="G57:G64" si="15">H57*J57</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H57" s="19">
@@ -4520,7 +4704,7 @@
         <v>고</v>
       </c>
       <c r="J57" s="18" t="str">
-        <f t="shared" ref="J57:J64" si="14">VLOOKUP(I57,M:P,4,FALSE)</f>
+        <f t="shared" ref="J57:J64" si="16">VLOOKUP(I57,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K57" s="11">
@@ -4532,11 +4716,11 @@
         <v>50</v>
       </c>
       <c r="F58" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5고</v>
       </c>
       <c r="G58" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H58" s="19">
@@ -4547,7 +4731,7 @@
         <v>고</v>
       </c>
       <c r="J58" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+140</v>
       </c>
       <c r="K58" s="11">
@@ -4559,11 +4743,11 @@
         <v>51</v>
       </c>
       <c r="F59" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10고</v>
       </c>
       <c r="G59" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+141</v>
       </c>
       <c r="H59" s="19">
@@ -4574,7 +4758,7 @@
         <v>고</v>
       </c>
       <c r="J59" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+140</v>
       </c>
       <c r="K59" s="11">
@@ -4586,11 +4770,11 @@
         <v>52</v>
       </c>
       <c r="F60" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50고</v>
       </c>
       <c r="G60" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H60" s="19">
@@ -4601,7 +4785,7 @@
         <v>고</v>
       </c>
       <c r="J60" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+140</v>
       </c>
       <c r="K60" s="11">
@@ -4613,11 +4797,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100고</v>
       </c>
       <c r="G61" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H61" s="19">
@@ -4628,7 +4812,7 @@
         <v>고</v>
       </c>
       <c r="J61" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+140</v>
       </c>
       <c r="K61" s="11">
@@ -4640,11 +4824,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500고</v>
       </c>
       <c r="G62" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H62" s="19">
@@ -4655,7 +4839,7 @@
         <v>고</v>
       </c>
       <c r="J62" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+140</v>
       </c>
       <c r="K62" s="11">
@@ -4667,11 +4851,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000고</v>
       </c>
       <c r="G63" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+143</v>
       </c>
       <c r="H63" s="19">
@@ -4682,7 +4866,7 @@
         <v>고</v>
       </c>
       <c r="J63" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+140</v>
       </c>
       <c r="K63" s="11">
@@ -4694,11 +4878,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5000고</v>
       </c>
       <c r="G64" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H64" s="19">
@@ -4709,7 +4893,7 @@
         <v>고</v>
       </c>
       <c r="J64" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+140</v>
       </c>
       <c r="K64" s="11">
@@ -4721,11 +4905,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="19" t="str">
-        <f t="shared" ref="F65:F72" si="15">H65&amp;I65</f>
+        <f t="shared" ref="F65:F72" si="17">H65&amp;I65</f>
         <v>1화</v>
       </c>
       <c r="G65" s="19">
-        <f t="shared" ref="G65:G72" si="16">H65*J65</f>
+        <f t="shared" ref="G65:G72" si="18">H65*J65</f>
         <v>1E+144</v>
       </c>
       <c r="H65" s="19">
@@ -4736,7 +4920,7 @@
         <v>화</v>
       </c>
       <c r="J65" s="18" t="str">
-        <f t="shared" ref="J65:J72" si="17">VLOOKUP(I65,M:P,4,FALSE)</f>
+        <f t="shared" ref="J65:J72" si="19">VLOOKUP(I65,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K65" s="11">
@@ -4748,11 +4932,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5화</v>
       </c>
       <c r="G66" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H66" s="19">
@@ -4763,7 +4947,7 @@
         <v>화</v>
       </c>
       <c r="J66" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+144</v>
       </c>
       <c r="K66" s="11">
@@ -4775,11 +4959,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10화</v>
       </c>
       <c r="G67" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H67" s="19">
@@ -4790,7 +4974,7 @@
         <v>화</v>
       </c>
       <c r="J67" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+144</v>
       </c>
       <c r="K67" s="11">
@@ -4802,11 +4986,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50화</v>
       </c>
       <c r="G68" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H68" s="19">
@@ -4817,7 +5001,7 @@
         <v>화</v>
       </c>
       <c r="J68" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+144</v>
       </c>
       <c r="K68" s="11">
@@ -4829,11 +5013,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100화</v>
       </c>
       <c r="G69" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H69" s="19">
@@ -4844,7 +5028,7 @@
         <v>화</v>
       </c>
       <c r="J69" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+144</v>
       </c>
       <c r="K69" s="11">
@@ -4856,11 +5040,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500화</v>
       </c>
       <c r="G70" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H70" s="19">
@@ -4871,7 +5055,7 @@
         <v>화</v>
       </c>
       <c r="J70" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+144</v>
       </c>
       <c r="K70" s="11">
@@ -4883,11 +5067,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000화</v>
       </c>
       <c r="G71" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H71" s="19">
@@ -4898,7 +5082,7 @@
         <v>화</v>
       </c>
       <c r="J71" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+144</v>
       </c>
       <c r="K71" s="11">
@@ -4910,11 +5094,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000화</v>
       </c>
       <c r="G72" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H72" s="19">
@@ -4925,11 +5109,227 @@
         <v>화</v>
       </c>
       <c r="J72" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+144</v>
       </c>
       <c r="K72" s="11">
         <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E73" s="18">
+        <v>65</v>
+      </c>
+      <c r="F73" s="19" t="str">
+        <f t="shared" ref="F73:F80" si="20">H73&amp;I73</f>
+        <v>1명</v>
+      </c>
+      <c r="G73" s="19">
+        <f t="shared" ref="G73:G80" si="21">H73*J73</f>
+        <v>1E+148</v>
+      </c>
+      <c r="H73" s="19">
+        <v>1</v>
+      </c>
+      <c r="I73" s="18" t="str" cm="1">
+        <f t="array" ref="I73">IF(AND(H72&gt;100,H73&lt;100),INDEX(M:M,MATCH(I72,M:M,0)+1,0),I72)</f>
+        <v>명</v>
+      </c>
+      <c r="J73" s="18" t="str">
+        <f t="shared" ref="J73:J80" si="22">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="K73" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E74" s="18">
+        <v>66</v>
+      </c>
+      <c r="F74" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>5명</v>
+      </c>
+      <c r="G74" s="19">
+        <f t="shared" si="21"/>
+        <v>5.0000000000000002E+148</v>
+      </c>
+      <c r="H74" s="19">
+        <v>5</v>
+      </c>
+      <c r="I74" s="18" t="str" cm="1">
+        <f t="array" ref="I74">IF(AND(H73&gt;100,H74&lt;100),INDEX(M:M,MATCH(I73,M:M,0)+1,0),I73)</f>
+        <v>명</v>
+      </c>
+      <c r="J74" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K74" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E75" s="18">
+        <v>67</v>
+      </c>
+      <c r="F75" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>10명</v>
+      </c>
+      <c r="G75" s="19">
+        <f t="shared" si="21"/>
+        <v>1E+149</v>
+      </c>
+      <c r="H75" s="19">
+        <v>10</v>
+      </c>
+      <c r="I75" s="18" t="str" cm="1">
+        <f t="array" ref="I75">IF(AND(H74&gt;100,H75&lt;100),INDEX(M:M,MATCH(I74,M:M,0)+1,0),I74)</f>
+        <v>명</v>
+      </c>
+      <c r="J75" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K75" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E76" s="18">
+        <v>68</v>
+      </c>
+      <c r="F76" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>50명</v>
+      </c>
+      <c r="G76" s="19">
+        <f t="shared" si="21"/>
+        <v>4.9999999999999999E+149</v>
+      </c>
+      <c r="H76" s="19">
+        <v>50</v>
+      </c>
+      <c r="I76" s="18" t="str" cm="1">
+        <f t="array" ref="I76">IF(AND(H75&gt;100,H76&lt;100),INDEX(M:M,MATCH(I75,M:M,0)+1,0),I75)</f>
+        <v>명</v>
+      </c>
+      <c r="J76" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K76" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E77" s="18">
+        <v>69</v>
+      </c>
+      <c r="F77" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>100명</v>
+      </c>
+      <c r="G77" s="19">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="H77" s="19">
+        <v>100</v>
+      </c>
+      <c r="I77" s="18" t="str" cm="1">
+        <f t="array" ref="I77">IF(AND(H76&gt;100,H77&lt;100),INDEX(M:M,MATCH(I76,M:M,0)+1,0),I76)</f>
+        <v>명</v>
+      </c>
+      <c r="J77" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K77" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E78" s="18">
+        <v>70</v>
+      </c>
+      <c r="F78" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>500명</v>
+      </c>
+      <c r="G78" s="19">
+        <f t="shared" si="21"/>
+        <v>5.0000000000000001E+150</v>
+      </c>
+      <c r="H78" s="19">
+        <v>500</v>
+      </c>
+      <c r="I78" s="18" t="str" cm="1">
+        <f t="array" ref="I78">IF(AND(H77&gt;100,H78&lt;100),INDEX(M:M,MATCH(I77,M:M,0)+1,0),I77)</f>
+        <v>명</v>
+      </c>
+      <c r="J78" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K78" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E79" s="18">
+        <v>71</v>
+      </c>
+      <c r="F79" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>1000명</v>
+      </c>
+      <c r="G79" s="19">
+        <f t="shared" si="21"/>
+        <v>1E+151</v>
+      </c>
+      <c r="H79" s="19">
+        <v>1000</v>
+      </c>
+      <c r="I79" s="18" t="str" cm="1">
+        <f t="array" ref="I79">IF(AND(H78&gt;100,H79&lt;100),INDEX(M:M,MATCH(I78,M:M,0)+1,0),I78)</f>
+        <v>명</v>
+      </c>
+      <c r="J79" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K79" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E80" s="18">
+        <v>72</v>
+      </c>
+      <c r="F80" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>5000명</v>
+      </c>
+      <c r="G80" s="19">
+        <f t="shared" si="21"/>
+        <v>5.0000000000000002E+151</v>
+      </c>
+      <c r="H80" s="19">
+        <v>5000</v>
+      </c>
+      <c r="I80" s="18" t="str" cm="1">
+        <f t="array" ref="I80">IF(AND(H79&gt;100,H80&lt;100),INDEX(M:M,MATCH(I79,M:M,0)+1,0),I79)</f>
+        <v>명</v>
+      </c>
+      <c r="J80" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K80" s="11">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTest.xlsx
+++ b/Assets/06.Table/RelicTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4A057E-B6DA-4ECA-9FEB-D200775C24F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6920C3-F657-49B5-9431-C4D0BA4682F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTest" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,14 @@
   </si>
   <si>
     <t>명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,11 +899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2321,7 +2329,7 @@
         <v>10명</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68:D73" si="1">D67</f>
+        <f t="shared" ref="D68:D81" si="1">D67</f>
         <v>-1</v>
       </c>
       <c r="E68" s="1">
@@ -2432,6 +2440,174 @@
       <c r="E73" s="1">
         <f>VLOOKUP(A73+1,Balance!E:K,7,FALSE)</f>
         <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <f>VLOOKUP(A74+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="C74" t="str">
+        <f>VLOOKUP(A74+1,Balance!E:K,2,FALSE)</f>
+        <v>1월</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E74" s="1">
+        <f>VLOOKUP(A74+1,Balance!E:K,7,FALSE)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <f>VLOOKUP(A75+1,Balance!E:K,3,FALSE)</f>
+        <v>5E+152</v>
+      </c>
+      <c r="C75" t="str">
+        <f>VLOOKUP(A75+1,Balance!E:K,2,FALSE)</f>
+        <v>5월</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E75" s="1">
+        <f>VLOOKUP(A75+1,Balance!E:K,7,FALSE)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <f>VLOOKUP(A76+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+153</v>
+      </c>
+      <c r="C76" t="str">
+        <f>VLOOKUP(A76+1,Balance!E:K,2,FALSE)</f>
+        <v>10월</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E76" s="1">
+        <f>VLOOKUP(A76+1,Balance!E:K,7,FALSE)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <f>VLOOKUP(A77+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+153</v>
+      </c>
+      <c r="C77" t="str">
+        <f>VLOOKUP(A77+1,Balance!E:K,2,FALSE)</f>
+        <v>50월</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E77" s="1">
+        <f>VLOOKUP(A77+1,Balance!E:K,7,FALSE)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <f>VLOOKUP(A78+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+154</v>
+      </c>
+      <c r="C78" t="str">
+        <f>VLOOKUP(A78+1,Balance!E:K,2,FALSE)</f>
+        <v>100월</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E78" s="1">
+        <f>VLOOKUP(A78+1,Balance!E:K,7,FALSE)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <f>VLOOKUP(A79+1,Balance!E:K,3,FALSE)</f>
+        <v>5E+154</v>
+      </c>
+      <c r="C79" t="str">
+        <f>VLOOKUP(A79+1,Balance!E:K,2,FALSE)</f>
+        <v>500월</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E79" s="1">
+        <f>VLOOKUP(A79+1,Balance!E:K,7,FALSE)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <f>VLOOKUP(A80+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+155</v>
+      </c>
+      <c r="C80" t="str">
+        <f>VLOOKUP(A80+1,Balance!E:K,2,FALSE)</f>
+        <v>1000월</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E80" s="1">
+        <f>VLOOKUP(A80+1,Balance!E:K,7,FALSE)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <f>VLOOKUP(A81+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999999E+155</v>
+      </c>
+      <c r="C81" t="str">
+        <f>VLOOKUP(A81+1,Balance!E:K,2,FALSE)</f>
+        <v>5000월</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E81" s="1">
+        <f>VLOOKUP(A81+1,Balance!E:K,7,FALSE)</f>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2443,10 +2619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879355A5-73CC-4381-AE56-05DD60810F90}">
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4254,8 +4430,20 @@
       <c r="K45" s="11">
         <v>24</v>
       </c>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
+      <c r="M45" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" s="18">
+        <v>152</v>
+      </c>
+      <c r="O45" s="19">
+        <f t="shared" ref="O45:O46" si="14">POWER(10,N45)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="P45" s="19" t="str">
+        <f t="shared" ref="P45:P46" si="15">RIGHT(O45,N45)</f>
+        <v>1E+152</v>
+      </c>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
@@ -4292,8 +4480,20 @@
       <c r="K46" s="11">
         <v>25</v>
       </c>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
+      <c r="M46" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="N46" s="18">
+        <v>156</v>
+      </c>
+      <c r="O46" s="19">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="P46" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>1E+156</v>
+      </c>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
@@ -4689,11 +4889,11 @@
         <v>49</v>
       </c>
       <c r="F57" s="19" t="str">
-        <f t="shared" ref="F57:F64" si="14">H57&amp;I57</f>
+        <f t="shared" ref="F57:F64" si="16">H57&amp;I57</f>
         <v>1고</v>
       </c>
       <c r="G57" s="19">
-        <f t="shared" ref="G57:G64" si="15">H57*J57</f>
+        <f t="shared" ref="G57:G64" si="17">H57*J57</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H57" s="19">
@@ -4704,7 +4904,7 @@
         <v>고</v>
       </c>
       <c r="J57" s="18" t="str">
-        <f t="shared" ref="J57:J64" si="16">VLOOKUP(I57,M:P,4,FALSE)</f>
+        <f t="shared" ref="J57:J64" si="18">VLOOKUP(I57,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K57" s="11">
@@ -4716,11 +4916,11 @@
         <v>50</v>
       </c>
       <c r="F58" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5고</v>
       </c>
       <c r="G58" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H58" s="19">
@@ -4731,7 +4931,7 @@
         <v>고</v>
       </c>
       <c r="J58" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+140</v>
       </c>
       <c r="K58" s="11">
@@ -4743,11 +4943,11 @@
         <v>51</v>
       </c>
       <c r="F59" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10고</v>
       </c>
       <c r="G59" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+141</v>
       </c>
       <c r="H59" s="19">
@@ -4758,7 +4958,7 @@
         <v>고</v>
       </c>
       <c r="J59" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+140</v>
       </c>
       <c r="K59" s="11">
@@ -4770,11 +4970,11 @@
         <v>52</v>
       </c>
       <c r="F60" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50고</v>
       </c>
       <c r="G60" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H60" s="19">
@@ -4785,7 +4985,7 @@
         <v>고</v>
       </c>
       <c r="J60" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+140</v>
       </c>
       <c r="K60" s="11">
@@ -4797,11 +4997,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100고</v>
       </c>
       <c r="G61" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H61" s="19">
@@ -4812,7 +5012,7 @@
         <v>고</v>
       </c>
       <c r="J61" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+140</v>
       </c>
       <c r="K61" s="11">
@@ -4824,11 +5024,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>500고</v>
       </c>
       <c r="G62" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H62" s="19">
@@ -4839,7 +5039,7 @@
         <v>고</v>
       </c>
       <c r="J62" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+140</v>
       </c>
       <c r="K62" s="11">
@@ -4851,11 +5051,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1000고</v>
       </c>
       <c r="G63" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+143</v>
       </c>
       <c r="H63" s="19">
@@ -4866,7 +5066,7 @@
         <v>고</v>
       </c>
       <c r="J63" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+140</v>
       </c>
       <c r="K63" s="11">
@@ -4878,11 +5078,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5000고</v>
       </c>
       <c r="G64" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H64" s="19">
@@ -4893,7 +5093,7 @@
         <v>고</v>
       </c>
       <c r="J64" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+140</v>
       </c>
       <c r="K64" s="11">
@@ -4905,11 +5105,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="19" t="str">
-        <f t="shared" ref="F65:F72" si="17">H65&amp;I65</f>
+        <f t="shared" ref="F65:F72" si="19">H65&amp;I65</f>
         <v>1화</v>
       </c>
       <c r="G65" s="19">
-        <f t="shared" ref="G65:G72" si="18">H65*J65</f>
+        <f t="shared" ref="G65:G72" si="20">H65*J65</f>
         <v>1E+144</v>
       </c>
       <c r="H65" s="19">
@@ -4920,7 +5120,7 @@
         <v>화</v>
       </c>
       <c r="J65" s="18" t="str">
-        <f t="shared" ref="J65:J72" si="19">VLOOKUP(I65,M:P,4,FALSE)</f>
+        <f t="shared" ref="J65:J72" si="21">VLOOKUP(I65,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K65" s="11">
@@ -4932,11 +5132,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5화</v>
       </c>
       <c r="G66" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H66" s="19">
@@ -4947,7 +5147,7 @@
         <v>화</v>
       </c>
       <c r="J66" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+144</v>
       </c>
       <c r="K66" s="11">
@@ -4959,11 +5159,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10화</v>
       </c>
       <c r="G67" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H67" s="19">
@@ -4974,7 +5174,7 @@
         <v>화</v>
       </c>
       <c r="J67" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+144</v>
       </c>
       <c r="K67" s="11">
@@ -4986,11 +5186,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50화</v>
       </c>
       <c r="G68" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H68" s="19">
@@ -5001,7 +5201,7 @@
         <v>화</v>
       </c>
       <c r="J68" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+144</v>
       </c>
       <c r="K68" s="11">
@@ -5013,11 +5213,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100화</v>
       </c>
       <c r="G69" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H69" s="19">
@@ -5028,7 +5228,7 @@
         <v>화</v>
       </c>
       <c r="J69" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+144</v>
       </c>
       <c r="K69" s="11">
@@ -5040,11 +5240,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500화</v>
       </c>
       <c r="G70" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H70" s="19">
@@ -5055,7 +5255,7 @@
         <v>화</v>
       </c>
       <c r="J70" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+144</v>
       </c>
       <c r="K70" s="11">
@@ -5067,11 +5267,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000화</v>
       </c>
       <c r="G71" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H71" s="19">
@@ -5082,7 +5282,7 @@
         <v>화</v>
       </c>
       <c r="J71" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+144</v>
       </c>
       <c r="K71" s="11">
@@ -5094,11 +5294,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000화</v>
       </c>
       <c r="G72" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H72" s="19">
@@ -5109,7 +5309,7 @@
         <v>화</v>
       </c>
       <c r="J72" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+144</v>
       </c>
       <c r="K72" s="11">
@@ -5121,11 +5321,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="19" t="str">
-        <f t="shared" ref="F73:F80" si="20">H73&amp;I73</f>
+        <f t="shared" ref="F73:F80" si="22">H73&amp;I73</f>
         <v>1명</v>
       </c>
       <c r="G73" s="19">
-        <f t="shared" ref="G73:G80" si="21">H73*J73</f>
+        <f t="shared" ref="G73:G80" si="23">H73*J73</f>
         <v>1E+148</v>
       </c>
       <c r="H73" s="19">
@@ -5136,7 +5336,7 @@
         <v>명</v>
       </c>
       <c r="J73" s="18" t="str">
-        <f t="shared" ref="J73:J80" si="22">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J80" si="24">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K73" s="11">
@@ -5148,11 +5348,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5명</v>
       </c>
       <c r="G74" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H74" s="19">
@@ -5163,7 +5363,7 @@
         <v>명</v>
       </c>
       <c r="J74" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+148</v>
       </c>
       <c r="K74" s="11">
@@ -5175,11 +5375,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10명</v>
       </c>
       <c r="G75" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+149</v>
       </c>
       <c r="H75" s="19">
@@ -5190,7 +5390,7 @@
         <v>명</v>
       </c>
       <c r="J75" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+148</v>
       </c>
       <c r="K75" s="11">
@@ -5202,11 +5402,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50명</v>
       </c>
       <c r="G76" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H76" s="19">
@@ -5217,7 +5417,7 @@
         <v>명</v>
       </c>
       <c r="J76" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+148</v>
       </c>
       <c r="K76" s="11">
@@ -5229,11 +5429,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100명</v>
       </c>
       <c r="G77" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H77" s="19">
@@ -5244,7 +5444,7 @@
         <v>명</v>
       </c>
       <c r="J77" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+148</v>
       </c>
       <c r="K77" s="11">
@@ -5256,11 +5456,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500명</v>
       </c>
       <c r="G78" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H78" s="19">
@@ -5271,7 +5471,7 @@
         <v>명</v>
       </c>
       <c r="J78" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+148</v>
       </c>
       <c r="K78" s="11">
@@ -5283,11 +5483,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000명</v>
       </c>
       <c r="G79" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+151</v>
       </c>
       <c r="H79" s="19">
@@ -5298,7 +5498,7 @@
         <v>명</v>
       </c>
       <c r="J79" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+148</v>
       </c>
       <c r="K79" s="11">
@@ -5310,11 +5510,11 @@
         <v>72</v>
       </c>
       <c r="F80" s="19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000명</v>
       </c>
       <c r="G80" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H80" s="19">
@@ -5325,11 +5525,227 @@
         <v>명</v>
       </c>
       <c r="J80" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+148</v>
       </c>
       <c r="K80" s="11">
         <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E81" s="18">
+        <v>73</v>
+      </c>
+      <c r="F81" s="19" t="str">
+        <f t="shared" ref="F81:F88" si="25">H81&amp;I81</f>
+        <v>1월</v>
+      </c>
+      <c r="G81" s="19">
+        <f t="shared" ref="G81:G88" si="26">H81*J81</f>
+        <v>1E+152</v>
+      </c>
+      <c r="H81" s="19">
+        <v>1</v>
+      </c>
+      <c r="I81" s="18" t="str" cm="1">
+        <f t="array" ref="I81">IF(AND(H80&gt;100,H81&lt;100),INDEX(M:M,MATCH(I80,M:M,0)+1,0),I80)</f>
+        <v>월</v>
+      </c>
+      <c r="J81" s="18" t="str">
+        <f t="shared" ref="J81:J88" si="27">VLOOKUP(I81,M:P,4,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="K81" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E82" s="18">
+        <v>74</v>
+      </c>
+      <c r="F82" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>5월</v>
+      </c>
+      <c r="G82" s="19">
+        <f t="shared" si="26"/>
+        <v>5E+152</v>
+      </c>
+      <c r="H82" s="19">
+        <v>5</v>
+      </c>
+      <c r="I82" s="18" t="str" cm="1">
+        <f t="array" ref="I82">IF(AND(H81&gt;100,H82&lt;100),INDEX(M:M,MATCH(I81,M:M,0)+1,0),I81)</f>
+        <v>월</v>
+      </c>
+      <c r="J82" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K82" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E83" s="18">
+        <v>75</v>
+      </c>
+      <c r="F83" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>10월</v>
+      </c>
+      <c r="G83" s="19">
+        <f t="shared" si="26"/>
+        <v>1E+153</v>
+      </c>
+      <c r="H83" s="19">
+        <v>10</v>
+      </c>
+      <c r="I83" s="18" t="str" cm="1">
+        <f t="array" ref="I83">IF(AND(H82&gt;100,H83&lt;100),INDEX(M:M,MATCH(I82,M:M,0)+1,0),I82)</f>
+        <v>월</v>
+      </c>
+      <c r="J83" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K83" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E84" s="18">
+        <v>76</v>
+      </c>
+      <c r="F84" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>50월</v>
+      </c>
+      <c r="G84" s="19">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000002E+153</v>
+      </c>
+      <c r="H84" s="19">
+        <v>50</v>
+      </c>
+      <c r="I84" s="18" t="str" cm="1">
+        <f t="array" ref="I84">IF(AND(H83&gt;100,H84&lt;100),INDEX(M:M,MATCH(I83,M:M,0)+1,0),I83)</f>
+        <v>월</v>
+      </c>
+      <c r="J84" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K84" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E85" s="18">
+        <v>77</v>
+      </c>
+      <c r="F85" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>100월</v>
+      </c>
+      <c r="G85" s="19">
+        <f t="shared" si="26"/>
+        <v>1E+154</v>
+      </c>
+      <c r="H85" s="19">
+        <v>100</v>
+      </c>
+      <c r="I85" s="18" t="str" cm="1">
+        <f t="array" ref="I85">IF(AND(H84&gt;100,H85&lt;100),INDEX(M:M,MATCH(I84,M:M,0)+1,0),I84)</f>
+        <v>월</v>
+      </c>
+      <c r="J85" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K85" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E86" s="18">
+        <v>78</v>
+      </c>
+      <c r="F86" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>500월</v>
+      </c>
+      <c r="G86" s="19">
+        <f t="shared" si="26"/>
+        <v>5E+154</v>
+      </c>
+      <c r="H86" s="19">
+        <v>500</v>
+      </c>
+      <c r="I86" s="18" t="str" cm="1">
+        <f t="array" ref="I86">IF(AND(H85&gt;100,H86&lt;100),INDEX(M:M,MATCH(I85,M:M,0)+1,0),I85)</f>
+        <v>월</v>
+      </c>
+      <c r="J86" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K86" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E87" s="18">
+        <v>79</v>
+      </c>
+      <c r="F87" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>1000월</v>
+      </c>
+      <c r="G87" s="19">
+        <f t="shared" si="26"/>
+        <v>1E+155</v>
+      </c>
+      <c r="H87" s="19">
+        <v>1000</v>
+      </c>
+      <c r="I87" s="18" t="str" cm="1">
+        <f t="array" ref="I87">IF(AND(H86&gt;100,H87&lt;100),INDEX(M:M,MATCH(I86,M:M,0)+1,0),I86)</f>
+        <v>월</v>
+      </c>
+      <c r="J87" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K87" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E88" s="18">
+        <v>80</v>
+      </c>
+      <c r="F88" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>5000월</v>
+      </c>
+      <c r="G88" s="19">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999999E+155</v>
+      </c>
+      <c r="H88" s="19">
+        <v>5000</v>
+      </c>
+      <c r="I88" s="18" t="str" cm="1">
+        <f t="array" ref="I88">IF(AND(H87&gt;100,H88&lt;100),INDEX(M:M,MATCH(I87,M:M,0)+1,0),I87)</f>
+        <v>월</v>
+      </c>
+      <c r="J88" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K88" s="11">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTest.xlsx
+++ b/Assets/06.Table/RelicTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6920C3-F657-49B5-9431-C4D0BA4682F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8241EE26-D1C1-4A4F-8498-954966DF4FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTest" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,18 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2329,7 +2341,7 @@
         <v>10명</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68:D81" si="1">D67</f>
+        <f t="shared" ref="D68:D89" si="1">D67</f>
         <v>-1</v>
       </c>
       <c r="E68" s="1">
@@ -2608,6 +2620,174 @@
       <c r="E81" s="1">
         <f>VLOOKUP(A81+1,Balance!E:K,7,FALSE)</f>
         <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <f>VLOOKUP(A82+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="C82" t="str">
+        <f>VLOOKUP(A82+1,Balance!E:K,2,FALSE)</f>
+        <v>1후</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E82" s="1">
+        <f>VLOOKUP(A82+1,Balance!E:K,7,FALSE)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <f>VLOOKUP(A83+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999999E+156</v>
+      </c>
+      <c r="C83" t="str">
+        <f>VLOOKUP(A83+1,Balance!E:K,2,FALSE)</f>
+        <v>5후</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E83" s="1">
+        <f>VLOOKUP(A83+1,Balance!E:K,7,FALSE)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <f>VLOOKUP(A84+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+156</v>
+      </c>
+      <c r="C84" t="str">
+        <f>VLOOKUP(A84+1,Balance!E:K,2,FALSE)</f>
+        <v>10후</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E84" s="1">
+        <f>VLOOKUP(A84+1,Balance!E:K,7,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <f>VLOOKUP(A85+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999998E+157</v>
+      </c>
+      <c r="C85" t="str">
+        <f>VLOOKUP(A85+1,Balance!E:K,2,FALSE)</f>
+        <v>50후</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E85" s="1">
+        <f>VLOOKUP(A85+1,Balance!E:K,7,FALSE)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <f>VLOOKUP(A86+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="C86" t="str">
+        <f>VLOOKUP(A86+1,Balance!E:K,2,FALSE)</f>
+        <v>100후</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E86" s="1">
+        <f>VLOOKUP(A86+1,Balance!E:K,7,FALSE)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <f>VLOOKUP(A87+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999996E+158</v>
+      </c>
+      <c r="C87" t="str">
+        <f>VLOOKUP(A87+1,Balance!E:K,2,FALSE)</f>
+        <v>500후</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E87" s="1">
+        <f>VLOOKUP(A87+1,Balance!E:K,7,FALSE)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <f>VLOOKUP(A88+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="C88" t="str">
+        <f>VLOOKUP(A88+1,Balance!E:K,2,FALSE)</f>
+        <v>1000후</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E88" s="1">
+        <f>VLOOKUP(A88+1,Balance!E:K,7,FALSE)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <f>VLOOKUP(A89+1,Balance!E:K,3,FALSE)</f>
+        <v>5E+159</v>
+      </c>
+      <c r="C89" t="str">
+        <f>VLOOKUP(A89+1,Balance!E:K,2,FALSE)</f>
+        <v>5000후</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E89" s="1">
+        <f>VLOOKUP(A89+1,Balance!E:K,7,FALSE)</f>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2619,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879355A5-73CC-4381-AE56-05DD60810F90}">
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4481,7 +4661,7 @@
         <v>25</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N46" s="18">
         <v>156</v>
@@ -4530,8 +4710,20 @@
       <c r="K47" s="11">
         <v>26</v>
       </c>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
+      <c r="M47" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" s="18">
+        <v>160</v>
+      </c>
+      <c r="O47" s="19">
+        <f t="shared" ref="O47:O49" si="16">POWER(10,N47)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="P47" s="19" t="str">
+        <f t="shared" ref="P47:P49" si="17">RIGHT(O47,N47)</f>
+        <v>1E+160</v>
+      </c>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
@@ -4568,8 +4760,20 @@
       <c r="K48" s="11">
         <v>27</v>
       </c>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
+      <c r="M48" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="N48" s="18">
+        <v>164</v>
+      </c>
+      <c r="O48" s="19">
+        <f t="shared" si="16"/>
+        <v>1E+164</v>
+      </c>
+      <c r="P48" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+164</v>
+      </c>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
@@ -4606,8 +4810,20 @@
       <c r="K49" s="11">
         <v>28</v>
       </c>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
+      <c r="M49" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N49" s="18">
+        <v>168</v>
+      </c>
+      <c r="O49" s="19">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="P49" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+168</v>
+      </c>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
@@ -4889,11 +5105,11 @@
         <v>49</v>
       </c>
       <c r="F57" s="19" t="str">
-        <f t="shared" ref="F57:F64" si="16">H57&amp;I57</f>
+        <f t="shared" ref="F57:F64" si="18">H57&amp;I57</f>
         <v>1고</v>
       </c>
       <c r="G57" s="19">
-        <f t="shared" ref="G57:G64" si="17">H57*J57</f>
+        <f t="shared" ref="G57:G64" si="19">H57*J57</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H57" s="19">
@@ -4904,7 +5120,7 @@
         <v>고</v>
       </c>
       <c r="J57" s="18" t="str">
-        <f t="shared" ref="J57:J64" si="18">VLOOKUP(I57,M:P,4,FALSE)</f>
+        <f t="shared" ref="J57:J64" si="20">VLOOKUP(I57,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K57" s="11">
@@ -4916,11 +5132,11 @@
         <v>50</v>
       </c>
       <c r="F58" s="19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5고</v>
       </c>
       <c r="G58" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H58" s="19">
@@ -4931,7 +5147,7 @@
         <v>고</v>
       </c>
       <c r="J58" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+140</v>
       </c>
       <c r="K58" s="11">
@@ -4943,11 +5159,11 @@
         <v>51</v>
       </c>
       <c r="F59" s="19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10고</v>
       </c>
       <c r="G59" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+141</v>
       </c>
       <c r="H59" s="19">
@@ -4958,7 +5174,7 @@
         <v>고</v>
       </c>
       <c r="J59" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+140</v>
       </c>
       <c r="K59" s="11">
@@ -4970,11 +5186,11 @@
         <v>52</v>
       </c>
       <c r="F60" s="19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50고</v>
       </c>
       <c r="G60" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H60" s="19">
@@ -4985,7 +5201,7 @@
         <v>고</v>
       </c>
       <c r="J60" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+140</v>
       </c>
       <c r="K60" s="11">
@@ -4997,11 +5213,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100고</v>
       </c>
       <c r="G61" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H61" s="19">
@@ -5012,7 +5228,7 @@
         <v>고</v>
       </c>
       <c r="J61" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+140</v>
       </c>
       <c r="K61" s="11">
@@ -5024,11 +5240,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500고</v>
       </c>
       <c r="G62" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H62" s="19">
@@ -5039,7 +5255,7 @@
         <v>고</v>
       </c>
       <c r="J62" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+140</v>
       </c>
       <c r="K62" s="11">
@@ -5051,11 +5267,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000고</v>
       </c>
       <c r="G63" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+143</v>
       </c>
       <c r="H63" s="19">
@@ -5066,7 +5282,7 @@
         <v>고</v>
       </c>
       <c r="J63" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+140</v>
       </c>
       <c r="K63" s="11">
@@ -5078,11 +5294,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000고</v>
       </c>
       <c r="G64" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H64" s="19">
@@ -5093,7 +5309,7 @@
         <v>고</v>
       </c>
       <c r="J64" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+140</v>
       </c>
       <c r="K64" s="11">
@@ -5105,11 +5321,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="19" t="str">
-        <f t="shared" ref="F65:F72" si="19">H65&amp;I65</f>
+        <f t="shared" ref="F65:F72" si="21">H65&amp;I65</f>
         <v>1화</v>
       </c>
       <c r="G65" s="19">
-        <f t="shared" ref="G65:G72" si="20">H65*J65</f>
+        <f t="shared" ref="G65:G72" si="22">H65*J65</f>
         <v>1E+144</v>
       </c>
       <c r="H65" s="19">
@@ -5120,7 +5336,7 @@
         <v>화</v>
       </c>
       <c r="J65" s="18" t="str">
-        <f t="shared" ref="J65:J72" si="21">VLOOKUP(I65,M:P,4,FALSE)</f>
+        <f t="shared" ref="J65:J72" si="23">VLOOKUP(I65,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K65" s="11">
@@ -5132,11 +5348,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5화</v>
       </c>
       <c r="G66" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H66" s="19">
@@ -5147,7 +5363,7 @@
         <v>화</v>
       </c>
       <c r="J66" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+144</v>
       </c>
       <c r="K66" s="11">
@@ -5159,11 +5375,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10화</v>
       </c>
       <c r="G67" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H67" s="19">
@@ -5174,7 +5390,7 @@
         <v>화</v>
       </c>
       <c r="J67" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+144</v>
       </c>
       <c r="K67" s="11">
@@ -5186,11 +5402,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50화</v>
       </c>
       <c r="G68" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H68" s="19">
@@ -5201,7 +5417,7 @@
         <v>화</v>
       </c>
       <c r="J68" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+144</v>
       </c>
       <c r="K68" s="11">
@@ -5213,11 +5429,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100화</v>
       </c>
       <c r="G69" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H69" s="19">
@@ -5228,7 +5444,7 @@
         <v>화</v>
       </c>
       <c r="J69" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+144</v>
       </c>
       <c r="K69" s="11">
@@ -5240,11 +5456,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500화</v>
       </c>
       <c r="G70" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H70" s="19">
@@ -5255,7 +5471,7 @@
         <v>화</v>
       </c>
       <c r="J70" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+144</v>
       </c>
       <c r="K70" s="11">
@@ -5267,11 +5483,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000화</v>
       </c>
       <c r="G71" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H71" s="19">
@@ -5282,7 +5498,7 @@
         <v>화</v>
       </c>
       <c r="J71" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+144</v>
       </c>
       <c r="K71" s="11">
@@ -5294,11 +5510,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5000화</v>
       </c>
       <c r="G72" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H72" s="19">
@@ -5309,7 +5525,7 @@
         <v>화</v>
       </c>
       <c r="J72" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+144</v>
       </c>
       <c r="K72" s="11">
@@ -5321,11 +5537,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="19" t="str">
-        <f t="shared" ref="F73:F80" si="22">H73&amp;I73</f>
+        <f t="shared" ref="F73:F80" si="24">H73&amp;I73</f>
         <v>1명</v>
       </c>
       <c r="G73" s="19">
-        <f t="shared" ref="G73:G80" si="23">H73*J73</f>
+        <f t="shared" ref="G73:G80" si="25">H73*J73</f>
         <v>1E+148</v>
       </c>
       <c r="H73" s="19">
@@ -5336,7 +5552,7 @@
         <v>명</v>
       </c>
       <c r="J73" s="18" t="str">
-        <f t="shared" ref="J73:J80" si="24">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J80" si="26">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K73" s="11">
@@ -5348,11 +5564,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5명</v>
       </c>
       <c r="G74" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H74" s="19">
@@ -5363,7 +5579,7 @@
         <v>명</v>
       </c>
       <c r="J74" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+148</v>
       </c>
       <c r="K74" s="11">
@@ -5375,11 +5591,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10명</v>
       </c>
       <c r="G75" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+149</v>
       </c>
       <c r="H75" s="19">
@@ -5390,7 +5606,7 @@
         <v>명</v>
       </c>
       <c r="J75" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+148</v>
       </c>
       <c r="K75" s="11">
@@ -5402,11 +5618,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50명</v>
       </c>
       <c r="G76" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H76" s="19">
@@ -5417,7 +5633,7 @@
         <v>명</v>
       </c>
       <c r="J76" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+148</v>
       </c>
       <c r="K76" s="11">
@@ -5429,11 +5645,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100명</v>
       </c>
       <c r="G77" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H77" s="19">
@@ -5444,7 +5660,7 @@
         <v>명</v>
       </c>
       <c r="J77" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+148</v>
       </c>
       <c r="K77" s="11">
@@ -5456,11 +5672,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500명</v>
       </c>
       <c r="G78" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H78" s="19">
@@ -5471,7 +5687,7 @@
         <v>명</v>
       </c>
       <c r="J78" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+148</v>
       </c>
       <c r="K78" s="11">
@@ -5483,11 +5699,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000명</v>
       </c>
       <c r="G79" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+151</v>
       </c>
       <c r="H79" s="19">
@@ -5498,7 +5714,7 @@
         <v>명</v>
       </c>
       <c r="J79" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+148</v>
       </c>
       <c r="K79" s="11">
@@ -5510,11 +5726,11 @@
         <v>72</v>
       </c>
       <c r="F80" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000명</v>
       </c>
       <c r="G80" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H80" s="19">
@@ -5525,7 +5741,7 @@
         <v>명</v>
       </c>
       <c r="J80" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+148</v>
       </c>
       <c r="K80" s="11">
@@ -5537,11 +5753,11 @@
         <v>73</v>
       </c>
       <c r="F81" s="19" t="str">
-        <f t="shared" ref="F81:F88" si="25">H81&amp;I81</f>
+        <f t="shared" ref="F81:F88" si="27">H81&amp;I81</f>
         <v>1월</v>
       </c>
       <c r="G81" s="19">
-        <f t="shared" ref="G81:G88" si="26">H81*J81</f>
+        <f t="shared" ref="G81:G88" si="28">H81*J81</f>
         <v>1E+152</v>
       </c>
       <c r="H81" s="19">
@@ -5552,7 +5768,7 @@
         <v>월</v>
       </c>
       <c r="J81" s="18" t="str">
-        <f t="shared" ref="J81:J88" si="27">VLOOKUP(I81,M:P,4,FALSE)</f>
+        <f t="shared" ref="J81:J88" si="29">VLOOKUP(I81,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K81" s="11">
@@ -5564,11 +5780,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="19" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5월</v>
       </c>
       <c r="G82" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5E+152</v>
       </c>
       <c r="H82" s="19">
@@ -5579,7 +5795,7 @@
         <v>월</v>
       </c>
       <c r="J82" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+152</v>
       </c>
       <c r="K82" s="11">
@@ -5591,11 +5807,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="19" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10월</v>
       </c>
       <c r="G83" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+153</v>
       </c>
       <c r="H83" s="19">
@@ -5606,7 +5822,7 @@
         <v>월</v>
       </c>
       <c r="J83" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+152</v>
       </c>
       <c r="K83" s="11">
@@ -5618,11 +5834,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="19" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50월</v>
       </c>
       <c r="G84" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000002E+153</v>
       </c>
       <c r="H84" s="19">
@@ -5633,7 +5849,7 @@
         <v>월</v>
       </c>
       <c r="J84" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+152</v>
       </c>
       <c r="K84" s="11">
@@ -5645,11 +5861,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="19" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100월</v>
       </c>
       <c r="G85" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+154</v>
       </c>
       <c r="H85" s="19">
@@ -5660,7 +5876,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="11">
@@ -5672,11 +5888,11 @@
         <v>78</v>
       </c>
       <c r="F86" s="19" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500월</v>
       </c>
       <c r="G86" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5E+154</v>
       </c>
       <c r="H86" s="19">
@@ -5687,7 +5903,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="11">
@@ -5699,11 +5915,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="19" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000월</v>
       </c>
       <c r="G87" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+155</v>
       </c>
       <c r="H87" s="19">
@@ -5714,7 +5930,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="11">
@@ -5726,11 +5942,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="19" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000월</v>
       </c>
       <c r="G88" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.9999999999999999E+155</v>
       </c>
       <c r="H88" s="19">
@@ -5741,11 +5957,227 @@
         <v>월</v>
       </c>
       <c r="J88" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="11">
         <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E89" s="18">
+        <v>81</v>
+      </c>
+      <c r="F89" s="19" t="str">
+        <f t="shared" ref="F89:F96" si="30">H89&amp;I89</f>
+        <v>1후</v>
+      </c>
+      <c r="G89" s="19">
+        <f t="shared" ref="G89:G96" si="31">H89*J89</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="H89" s="19">
+        <v>1</v>
+      </c>
+      <c r="I89" s="18" t="str" cm="1">
+        <f t="array" ref="I89">IF(AND(H88&gt;100,H89&lt;100),INDEX(M:M,MATCH(I88,M:M,0)+1,0),I88)</f>
+        <v>후</v>
+      </c>
+      <c r="J89" s="18" t="str">
+        <f t="shared" ref="J89:J96" si="32">VLOOKUP(I89,M:P,4,FALSE)</f>
+        <v>1E+156</v>
+      </c>
+      <c r="K89" s="11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E90" s="18">
+        <v>82</v>
+      </c>
+      <c r="F90" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>5후</v>
+      </c>
+      <c r="G90" s="19">
+        <f t="shared" si="31"/>
+        <v>4.9999999999999999E+156</v>
+      </c>
+      <c r="H90" s="19">
+        <v>5</v>
+      </c>
+      <c r="I90" s="18" t="str" cm="1">
+        <f t="array" ref="I90">IF(AND(H89&gt;100,H90&lt;100),INDEX(M:M,MATCH(I89,M:M,0)+1,0),I89)</f>
+        <v>후</v>
+      </c>
+      <c r="J90" s="18" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K90" s="11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E91" s="18">
+        <v>83</v>
+      </c>
+      <c r="F91" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>10후</v>
+      </c>
+      <c r="G91" s="19">
+        <f t="shared" si="31"/>
+        <v>9.9999999999999998E+156</v>
+      </c>
+      <c r="H91" s="19">
+        <v>10</v>
+      </c>
+      <c r="I91" s="18" t="str" cm="1">
+        <f t="array" ref="I91">IF(AND(H90&gt;100,H91&lt;100),INDEX(M:M,MATCH(I90,M:M,0)+1,0),I90)</f>
+        <v>후</v>
+      </c>
+      <c r="J91" s="18" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K91" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E92" s="18">
+        <v>84</v>
+      </c>
+      <c r="F92" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>50후</v>
+      </c>
+      <c r="G92" s="19">
+        <f t="shared" si="31"/>
+        <v>4.9999999999999998E+157</v>
+      </c>
+      <c r="H92" s="19">
+        <v>50</v>
+      </c>
+      <c r="I92" s="18" t="str" cm="1">
+        <f t="array" ref="I92">IF(AND(H91&gt;100,H92&lt;100),INDEX(M:M,MATCH(I91,M:M,0)+1,0),I91)</f>
+        <v>후</v>
+      </c>
+      <c r="J92" s="18" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K92" s="11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E93" s="18">
+        <v>85</v>
+      </c>
+      <c r="F93" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>100후</v>
+      </c>
+      <c r="G93" s="19">
+        <f t="shared" si="31"/>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="H93" s="19">
+        <v>100</v>
+      </c>
+      <c r="I93" s="18" t="str" cm="1">
+        <f t="array" ref="I93">IF(AND(H92&gt;100,H93&lt;100),INDEX(M:M,MATCH(I92,M:M,0)+1,0),I92)</f>
+        <v>후</v>
+      </c>
+      <c r="J93" s="18" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K93" s="11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E94" s="18">
+        <v>86</v>
+      </c>
+      <c r="F94" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>500후</v>
+      </c>
+      <c r="G94" s="19">
+        <f t="shared" si="31"/>
+        <v>4.9999999999999996E+158</v>
+      </c>
+      <c r="H94" s="19">
+        <v>500</v>
+      </c>
+      <c r="I94" s="18" t="str" cm="1">
+        <f t="array" ref="I94">IF(AND(H93&gt;100,H94&lt;100),INDEX(M:M,MATCH(I93,M:M,0)+1,0),I93)</f>
+        <v>후</v>
+      </c>
+      <c r="J94" s="18" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K94" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E95" s="18">
+        <v>87</v>
+      </c>
+      <c r="F95" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>1000후</v>
+      </c>
+      <c r="G95" s="19">
+        <f t="shared" si="31"/>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="H95" s="19">
+        <v>1000</v>
+      </c>
+      <c r="I95" s="18" t="str" cm="1">
+        <f t="array" ref="I95">IF(AND(H94&gt;100,H95&lt;100),INDEX(M:M,MATCH(I94,M:M,0)+1,0),I94)</f>
+        <v>후</v>
+      </c>
+      <c r="J95" s="18" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K95" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E96" s="18">
+        <v>88</v>
+      </c>
+      <c r="F96" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>5000후</v>
+      </c>
+      <c r="G96" s="19">
+        <f t="shared" si="31"/>
+        <v>5E+159</v>
+      </c>
+      <c r="H96" s="19">
+        <v>5000</v>
+      </c>
+      <c r="I96" s="18" t="str" cm="1">
+        <f t="array" ref="I96">IF(AND(H95&gt;100,H96&lt;100),INDEX(M:M,MATCH(I95,M:M,0)+1,0),I95)</f>
+        <v>후</v>
+      </c>
+      <c r="J96" s="18" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K96" s="11">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTest.xlsx
+++ b/Assets/06.Table/RelicTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8241EE26-D1C1-4A4F-8498-954966DF4FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F279D2A2-DF1A-4BB9-BBEF-62AD45BB0621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTest" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -911,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2341,7 +2341,7 @@
         <v>10명</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68:D89" si="1">D67</f>
+        <f t="shared" ref="D68:D97" si="1">D67</f>
         <v>-1</v>
       </c>
       <c r="E68" s="1">
@@ -2788,6 +2788,174 @@
       <c r="E89" s="1">
         <f>VLOOKUP(A89+1,Balance!E:K,7,FALSE)</f>
         <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <f>VLOOKUP(A90+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="C90" t="str">
+        <f>VLOOKUP(A90+1,Balance!E:K,2,FALSE)</f>
+        <v>1단</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E90" s="1">
+        <f>VLOOKUP(A90+1,Balance!E:K,7,FALSE)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <f>VLOOKUP(A91+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+160</v>
+      </c>
+      <c r="C91" t="str">
+        <f>VLOOKUP(A91+1,Balance!E:K,2,FALSE)</f>
+        <v>5단</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E91" s="1">
+        <f>VLOOKUP(A91+1,Balance!E:K,7,FALSE)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <f>VLOOKUP(A92+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+161</v>
+      </c>
+      <c r="C92" t="str">
+        <f>VLOOKUP(A92+1,Balance!E:K,2,FALSE)</f>
+        <v>10단</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E92" s="1">
+        <f>VLOOKUP(A92+1,Balance!E:K,7,FALSE)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <f>VLOOKUP(A93+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="C93" t="str">
+        <f>VLOOKUP(A93+1,Balance!E:K,2,FALSE)</f>
+        <v>50단</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E93" s="1">
+        <f>VLOOKUP(A93+1,Balance!E:K,7,FALSE)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <f>VLOOKUP(A94+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="C94" t="str">
+        <f>VLOOKUP(A94+1,Balance!E:K,2,FALSE)</f>
+        <v>100단</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E94" s="1">
+        <f>VLOOKUP(A94+1,Balance!E:K,7,FALSE)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <f>VLOOKUP(A95+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999997E+162</v>
+      </c>
+      <c r="C95" t="str">
+        <f>VLOOKUP(A95+1,Balance!E:K,2,FALSE)</f>
+        <v>500단</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E95" s="1">
+        <f>VLOOKUP(A95+1,Balance!E:K,7,FALSE)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <f>VLOOKUP(A96+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="C96" t="str">
+        <f>VLOOKUP(A96+1,Balance!E:K,2,FALSE)</f>
+        <v>1000단</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E96" s="1">
+        <f>VLOOKUP(A96+1,Balance!E:K,7,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <f>VLOOKUP(A97+1,Balance!E:K,3,FALSE)</f>
+        <v>5E+163</v>
+      </c>
+      <c r="C97" t="str">
+        <f>VLOOKUP(A97+1,Balance!E:K,2,FALSE)</f>
+        <v>5000단</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E97" s="1">
+        <f>VLOOKUP(A97+1,Balance!E:K,7,FALSE)</f>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2799,10 +2967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879355A5-73CC-4381-AE56-05DD60810F90}">
-  <dimension ref="A1:Y96"/>
+  <dimension ref="A1:Y106"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6180,6 +6348,230 @@
         <v>75</v>
       </c>
     </row>
+    <row r="97" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E97" s="18">
+        <v>89</v>
+      </c>
+      <c r="F97" s="19" t="str">
+        <f t="shared" ref="F97:F106" si="33">H97&amp;I97</f>
+        <v>1단</v>
+      </c>
+      <c r="G97" s="19">
+        <f t="shared" ref="G97:G106" si="34">H97*J97</f>
+        <v>1E+160</v>
+      </c>
+      <c r="H97" s="19">
+        <v>1</v>
+      </c>
+      <c r="I97" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J97" s="18" t="str">
+        <f t="shared" ref="J97:J106" si="35">VLOOKUP(I97,M:P,4,FALSE)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="K97" s="11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E98" s="18">
+        <v>90</v>
+      </c>
+      <c r="F98" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>5단</v>
+      </c>
+      <c r="G98" s="19">
+        <f t="shared" si="34"/>
+        <v>5.0000000000000002E+160</v>
+      </c>
+      <c r="H98" s="19">
+        <v>5</v>
+      </c>
+      <c r="I98" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J98" s="18" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K98" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E99" s="18">
+        <v>91</v>
+      </c>
+      <c r="F99" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>10단</v>
+      </c>
+      <c r="G99" s="19">
+        <f t="shared" si="34"/>
+        <v>1E+161</v>
+      </c>
+      <c r="H99" s="19">
+        <v>10</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J99" s="18" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K99" s="11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E100" s="18">
+        <v>92</v>
+      </c>
+      <c r="F100" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>50단</v>
+      </c>
+      <c r="G100" s="19">
+        <f t="shared" si="34"/>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="H100" s="19">
+        <v>50</v>
+      </c>
+      <c r="I100" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J100" s="18" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K100" s="11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E101" s="18">
+        <v>93</v>
+      </c>
+      <c r="F101" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>100단</v>
+      </c>
+      <c r="G101" s="19">
+        <f t="shared" si="34"/>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="H101" s="19">
+        <v>100</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J101" s="18" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K101" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E102" s="18">
+        <v>94</v>
+      </c>
+      <c r="F102" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>500단</v>
+      </c>
+      <c r="G102" s="19">
+        <f t="shared" si="34"/>
+        <v>4.9999999999999997E+162</v>
+      </c>
+      <c r="H102" s="19">
+        <v>500</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J102" s="18" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K102" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E103" s="18">
+        <v>95</v>
+      </c>
+      <c r="F103" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>1000단</v>
+      </c>
+      <c r="G103" s="19">
+        <f t="shared" si="34"/>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="H103" s="19">
+        <v>1000</v>
+      </c>
+      <c r="I103" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J103" s="18" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K103" s="11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E104" s="18">
+        <v>96</v>
+      </c>
+      <c r="F104" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>5000단</v>
+      </c>
+      <c r="G104" s="19">
+        <f t="shared" si="34"/>
+        <v>5E+163</v>
+      </c>
+      <c r="H104" s="19">
+        <v>5000</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J104" s="18" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K104" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E105" s="18"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+    </row>
+    <row r="106" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E106" s="18"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B2"/>

--- a/Assets/06.Table/RelicTest.xlsx
+++ b/Assets/06.Table/RelicTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F279D2A2-DF1A-4BB9-BBEF-62AD45BB0621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8151831C-4E6B-4F4C-96D5-0FBCC5B817BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTest" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,6 +324,10 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2341,7 +2341,7 @@
         <v>10명</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68:D97" si="1">D67</f>
+        <f t="shared" ref="D68:D105" si="1">D67</f>
         <v>-1</v>
       </c>
       <c r="E68" s="1">
@@ -2956,6 +2956,174 @@
       <c r="E97" s="1">
         <f>VLOOKUP(A97+1,Balance!E:K,7,FALSE)</f>
         <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <f>VLOOKUP(A98+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="C98" t="str">
+        <f>VLOOKUP(A98+1,Balance!E:K,2,FALSE)</f>
+        <v>1절</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E98" s="1">
+        <f>VLOOKUP(A98+1,Balance!E:K,7,FALSE)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <f>VLOOKUP(A99+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000005E+164</v>
+      </c>
+      <c r="C99" t="str">
+        <f>VLOOKUP(A99+1,Balance!E:K,2,FALSE)</f>
+        <v>5절</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E99" s="1">
+        <f>VLOOKUP(A99+1,Balance!E:K,7,FALSE)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <f>VLOOKUP(A100+1,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="C100" t="str">
+        <f>VLOOKUP(A100+1,Balance!E:K,2,FALSE)</f>
+        <v>10절</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E100" s="1">
+        <f>VLOOKUP(A100+1,Balance!E:K,7,FALSE)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <f>VLOOKUP(A101+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999997E+165</v>
+      </c>
+      <c r="C101" t="str">
+        <f>VLOOKUP(A101+1,Balance!E:K,2,FALSE)</f>
+        <v>50절</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E101" s="1">
+        <f>VLOOKUP(A101+1,Balance!E:K,7,FALSE)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <f>VLOOKUP(A102+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="C102" t="str">
+        <f>VLOOKUP(A102+1,Balance!E:K,2,FALSE)</f>
+        <v>100절</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E102" s="1">
+        <f>VLOOKUP(A102+1,Balance!E:K,7,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <f>VLOOKUP(A103+1,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+166</v>
+      </c>
+      <c r="C103" t="str">
+        <f>VLOOKUP(A103+1,Balance!E:K,2,FALSE)</f>
+        <v>500절</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E103" s="1">
+        <f>VLOOKUP(A103+1,Balance!E:K,7,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <f>VLOOKUP(A104+1,Balance!E:K,3,FALSE)</f>
+        <v>1E+167</v>
+      </c>
+      <c r="C104" t="str">
+        <f>VLOOKUP(A104+1,Balance!E:K,2,FALSE)</f>
+        <v>1000절</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E104" s="1">
+        <f>VLOOKUP(A104+1,Balance!E:K,7,FALSE)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <f>VLOOKUP(A105+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999997E+167</v>
+      </c>
+      <c r="C105" t="str">
+        <f>VLOOKUP(A105+1,Balance!E:K,2,FALSE)</f>
+        <v>5000절</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E105" s="1">
+        <f>VLOOKUP(A105+1,Balance!E:K,7,FALSE)</f>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2967,10 +3135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879355A5-73CC-4381-AE56-05DD60810F90}">
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4829,7 +4997,7 @@
         <v>25</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N46" s="18">
         <v>156</v>
@@ -4879,7 +5047,7 @@
         <v>26</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N47" s="18">
         <v>160</v>
@@ -4929,7 +5097,7 @@
         <v>27</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N48" s="18">
         <v>164</v>
@@ -4979,7 +5147,7 @@
         <v>28</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N49" s="18">
         <v>168</v>
@@ -6353,21 +6521,22 @@
         <v>89</v>
       </c>
       <c r="F97" s="19" t="str">
-        <f t="shared" ref="F97:F106" si="33">H97&amp;I97</f>
+        <f t="shared" ref="F97:F104" si="33">H97&amp;I97</f>
         <v>1단</v>
       </c>
       <c r="G97" s="19">
-        <f t="shared" ref="G97:G106" si="34">H97*J97</f>
+        <f t="shared" ref="G97:G104" si="34">H97*J97</f>
         <v>1E+160</v>
       </c>
       <c r="H97" s="19">
         <v>1</v>
       </c>
-      <c r="I97" s="18" t="s">
-        <v>66</v>
+      <c r="I97" s="18" t="str" cm="1">
+        <f t="array" ref="I97">IF(AND(H96&gt;100,H97&lt;100),INDEX(M:M,MATCH(I96,M:M,0)+1,0),I96)</f>
+        <v>단</v>
       </c>
       <c r="J97" s="18" t="str">
-        <f t="shared" ref="J97:J106" si="35">VLOOKUP(I97,M:P,4,FALSE)</f>
+        <f t="shared" ref="J97:J104" si="35">VLOOKUP(I97,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K97" s="11">
@@ -6389,8 +6558,9 @@
       <c r="H98" s="19">
         <v>5</v>
       </c>
-      <c r="I98" s="18" t="s">
-        <v>66</v>
+      <c r="I98" s="18" t="str" cm="1">
+        <f t="array" ref="I98">IF(AND(H97&gt;100,H98&lt;100),INDEX(M:M,MATCH(I97,M:M,0)+1,0),I97)</f>
+        <v>단</v>
       </c>
       <c r="J98" s="18" t="str">
         <f t="shared" si="35"/>
@@ -6415,8 +6585,9 @@
       <c r="H99" s="19">
         <v>10</v>
       </c>
-      <c r="I99" s="18" t="s">
-        <v>66</v>
+      <c r="I99" s="18" t="str" cm="1">
+        <f t="array" ref="I99">IF(AND(H98&gt;100,H99&lt;100),INDEX(M:M,MATCH(I98,M:M,0)+1,0),I98)</f>
+        <v>단</v>
       </c>
       <c r="J99" s="18" t="str">
         <f t="shared" si="35"/>
@@ -6441,8 +6612,9 @@
       <c r="H100" s="19">
         <v>50</v>
       </c>
-      <c r="I100" s="18" t="s">
-        <v>66</v>
+      <c r="I100" s="18" t="str" cm="1">
+        <f t="array" ref="I100">IF(AND(H99&gt;100,H100&lt;100),INDEX(M:M,MATCH(I99,M:M,0)+1,0),I99)</f>
+        <v>단</v>
       </c>
       <c r="J100" s="18" t="str">
         <f t="shared" si="35"/>
@@ -6467,8 +6639,9 @@
       <c r="H101" s="19">
         <v>100</v>
       </c>
-      <c r="I101" s="18" t="s">
-        <v>66</v>
+      <c r="I101" s="18" t="str" cm="1">
+        <f t="array" ref="I101">IF(AND(H100&gt;100,H101&lt;100),INDEX(M:M,MATCH(I100,M:M,0)+1,0),I100)</f>
+        <v>단</v>
       </c>
       <c r="J101" s="18" t="str">
         <f t="shared" si="35"/>
@@ -6493,8 +6666,9 @@
       <c r="H102" s="19">
         <v>500</v>
       </c>
-      <c r="I102" s="18" t="s">
-        <v>66</v>
+      <c r="I102" s="18" t="str" cm="1">
+        <f t="array" ref="I102">IF(AND(H101&gt;100,H102&lt;100),INDEX(M:M,MATCH(I101,M:M,0)+1,0),I101)</f>
+        <v>단</v>
       </c>
       <c r="J102" s="18" t="str">
         <f t="shared" si="35"/>
@@ -6519,8 +6693,9 @@
       <c r="H103" s="19">
         <v>1000</v>
       </c>
-      <c r="I103" s="18" t="s">
-        <v>66</v>
+      <c r="I103" s="18" t="str" cm="1">
+        <f t="array" ref="I103">IF(AND(H102&gt;100,H103&lt;100),INDEX(M:M,MATCH(I102,M:M,0)+1,0),I102)</f>
+        <v>단</v>
       </c>
       <c r="J103" s="18" t="str">
         <f t="shared" si="35"/>
@@ -6545,8 +6720,9 @@
       <c r="H104" s="19">
         <v>5000</v>
       </c>
-      <c r="I104" s="18" t="s">
-        <v>66</v>
+      <c r="I104" s="18" t="str" cm="1">
+        <f t="array" ref="I104">IF(AND(H103&gt;100,H104&lt;100),INDEX(M:M,MATCH(I103,M:M,0)+1,0),I103)</f>
+        <v>단</v>
       </c>
       <c r="J104" s="18" t="str">
         <f t="shared" si="35"/>
@@ -6557,20 +6733,220 @@
       </c>
     </row>
     <row r="105" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E105" s="18"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
+      <c r="E105" s="18">
+        <v>97</v>
+      </c>
+      <c r="F105" s="19" t="str">
+        <f t="shared" ref="F105:F112" si="36">H105&amp;I105</f>
+        <v>1절</v>
+      </c>
+      <c r="G105" s="19">
+        <f t="shared" ref="G105:G112" si="37">H105*J105</f>
+        <v>1E+164</v>
+      </c>
+      <c r="H105" s="19">
+        <v>1</v>
+      </c>
+      <c r="I105" s="18" t="str" cm="1">
+        <f t="array" ref="I105">IF(AND(H104&gt;100,H105&lt;100),INDEX(M:M,MATCH(I104,M:M,0)+1,0),I104)</f>
+        <v>절</v>
+      </c>
+      <c r="J105" s="18" t="str">
+        <f t="shared" ref="J105:J112" si="38">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="K105" s="11">
+        <v>84</v>
+      </c>
     </row>
     <row r="106" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E106" s="18"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
+      <c r="E106" s="18">
+        <v>98</v>
+      </c>
+      <c r="F106" s="19" t="str">
+        <f t="shared" si="36"/>
+        <v>5절</v>
+      </c>
+      <c r="G106" s="19">
+        <f t="shared" si="37"/>
+        <v>5.0000000000000005E+164</v>
+      </c>
+      <c r="H106" s="19">
+        <v>5</v>
+      </c>
+      <c r="I106" s="18" t="str" cm="1">
+        <f t="array" ref="I106">IF(AND(H105&gt;100,H106&lt;100),INDEX(M:M,MATCH(I105,M:M,0)+1,0),I105)</f>
+        <v>절</v>
+      </c>
+      <c r="J106" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K106" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E107" s="18">
+        <v>99</v>
+      </c>
+      <c r="F107" s="19" t="str">
+        <f t="shared" si="36"/>
+        <v>10절</v>
+      </c>
+      <c r="G107" s="19">
+        <f t="shared" si="37"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="H107" s="19">
+        <v>10</v>
+      </c>
+      <c r="I107" s="18" t="str" cm="1">
+        <f t="array" ref="I107">IF(AND(H106&gt;100,H107&lt;100),INDEX(M:M,MATCH(I106,M:M,0)+1,0),I106)</f>
+        <v>절</v>
+      </c>
+      <c r="J107" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K107" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E108" s="18">
+        <v>100</v>
+      </c>
+      <c r="F108" s="19" t="str">
+        <f t="shared" si="36"/>
+        <v>50절</v>
+      </c>
+      <c r="G108" s="19">
+        <f t="shared" si="37"/>
+        <v>4.9999999999999997E+165</v>
+      </c>
+      <c r="H108" s="19">
+        <v>50</v>
+      </c>
+      <c r="I108" s="18" t="str" cm="1">
+        <f t="array" ref="I108">IF(AND(H107&gt;100,H108&lt;100),INDEX(M:M,MATCH(I107,M:M,0)+1,0),I107)</f>
+        <v>절</v>
+      </c>
+      <c r="J108" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K108" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E109" s="18">
+        <v>101</v>
+      </c>
+      <c r="F109" s="19" t="str">
+        <f t="shared" si="36"/>
+        <v>100절</v>
+      </c>
+      <c r="G109" s="19">
+        <f t="shared" si="37"/>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="H109" s="19">
+        <v>100</v>
+      </c>
+      <c r="I109" s="18" t="str" cm="1">
+        <f t="array" ref="I109">IF(AND(H108&gt;100,H109&lt;100),INDEX(M:M,MATCH(I108,M:M,0)+1,0),I108)</f>
+        <v>절</v>
+      </c>
+      <c r="J109" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K109" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E110" s="18">
+        <v>102</v>
+      </c>
+      <c r="F110" s="19" t="str">
+        <f t="shared" si="36"/>
+        <v>500절</v>
+      </c>
+      <c r="G110" s="19">
+        <f t="shared" si="37"/>
+        <v>5.0000000000000002E+166</v>
+      </c>
+      <c r="H110" s="19">
+        <v>500</v>
+      </c>
+      <c r="I110" s="18" t="str" cm="1">
+        <f t="array" ref="I110">IF(AND(H109&gt;100,H110&lt;100),INDEX(M:M,MATCH(I109,M:M,0)+1,0),I109)</f>
+        <v>절</v>
+      </c>
+      <c r="J110" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K110" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E111" s="18">
+        <v>103</v>
+      </c>
+      <c r="F111" s="19" t="str">
+        <f t="shared" si="36"/>
+        <v>1000절</v>
+      </c>
+      <c r="G111" s="19">
+        <f t="shared" si="37"/>
+        <v>1E+167</v>
+      </c>
+      <c r="H111" s="19">
+        <v>1000</v>
+      </c>
+      <c r="I111" s="18" t="str" cm="1">
+        <f t="array" ref="I111">IF(AND(H110&gt;100,H111&lt;100),INDEX(M:M,MATCH(I110,M:M,0)+1,0),I110)</f>
+        <v>절</v>
+      </c>
+      <c r="J111" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K111" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E112" s="18">
+        <v>104</v>
+      </c>
+      <c r="F112" s="19" t="str">
+        <f t="shared" si="36"/>
+        <v>5000절</v>
+      </c>
+      <c r="G112" s="19">
+        <f t="shared" si="37"/>
+        <v>4.9999999999999997E+167</v>
+      </c>
+      <c r="H112" s="19">
+        <v>5000</v>
+      </c>
+      <c r="I112" s="18" t="str" cm="1">
+        <f t="array" ref="I112">IF(AND(H111&gt;100,H112&lt;100),INDEX(M:M,MATCH(I111,M:M,0)+1,0),I111)</f>
+        <v>절</v>
+      </c>
+      <c r="J112" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K112" s="11">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/RelicTest.xlsx
+++ b/Assets/06.Table/RelicTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8151831C-4E6B-4F4C-96D5-0FBCC5B817BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED037C1-CEC1-4904-BD7C-5B1C680508DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTest" sheetId="1" r:id="rId1"/>
@@ -323,11 +323,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>절</t>
+    <t>격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2341,7 +2341,7 @@
         <v>10명</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68:D105" si="1">D67</f>
+        <f t="shared" ref="D68:D113" si="1">D67</f>
         <v>-1</v>
       </c>
       <c r="E68" s="1">
@@ -3124,6 +3124,174 @@
       <c r="E105" s="1">
         <f>VLOOKUP(A105+1,Balance!E:K,7,FALSE)</f>
         <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <f>VLOOKUP(A106+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="C106" t="str">
+        <f>VLOOKUP(A106+1,Balance!E:K,2,FALSE)</f>
+        <v>1격</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E106" s="1">
+        <f>VLOOKUP(A106+1,Balance!E:K,7,FALSE)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <f>VLOOKUP(A107+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999997E+168</v>
+      </c>
+      <c r="C107" t="str">
+        <f>VLOOKUP(A107+1,Balance!E:K,2,FALSE)</f>
+        <v>5격</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E107" s="1">
+        <f>VLOOKUP(A107+1,Balance!E:K,7,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <f>VLOOKUP(A108+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="C108" t="str">
+        <f>VLOOKUP(A108+1,Balance!E:K,2,FALSE)</f>
+        <v>10격</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E108" s="1">
+        <f>VLOOKUP(A108+1,Balance!E:K,7,FALSE)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <f>VLOOKUP(A109+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999995E+169</v>
+      </c>
+      <c r="C109" t="str">
+        <f>VLOOKUP(A109+1,Balance!E:K,2,FALSE)</f>
+        <v>50격</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E109" s="1">
+        <f>VLOOKUP(A109+1,Balance!E:K,7,FALSE)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <f>VLOOKUP(A110+1,Balance!E:K,3,FALSE)</f>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="C110" t="str">
+        <f>VLOOKUP(A110+1,Balance!E:K,2,FALSE)</f>
+        <v>100격</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E110" s="1">
+        <f>VLOOKUP(A110+1,Balance!E:K,7,FALSE)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <f>VLOOKUP(A111+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999998E+170</v>
+      </c>
+      <c r="C111" t="str">
+        <f>VLOOKUP(A111+1,Balance!E:K,2,FALSE)</f>
+        <v>500격</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E111" s="1">
+        <f>VLOOKUP(A111+1,Balance!E:K,7,FALSE)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <f>VLOOKUP(A112+1,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="C112" t="str">
+        <f>VLOOKUP(A112+1,Balance!E:K,2,FALSE)</f>
+        <v>1000격</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E112" s="1">
+        <f>VLOOKUP(A112+1,Balance!E:K,7,FALSE)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <f>VLOOKUP(A113+1,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999996E+171</v>
+      </c>
+      <c r="C113" t="str">
+        <f>VLOOKUP(A113+1,Balance!E:K,2,FALSE)</f>
+        <v>5000격</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E113" s="1">
+        <f>VLOOKUP(A113+1,Balance!E:K,7,FALSE)</f>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3135,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879355A5-73CC-4381-AE56-05DD60810F90}">
-  <dimension ref="A1:Y112"/>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="K114" sqref="E114:K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3297,7 +3465,7 @@
         <v>50</v>
       </c>
       <c r="J9" s="18" t="str">
-        <f t="shared" ref="J9:J56" si="0">VLOOKUP(I9,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I9,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K9" s="11">
@@ -3310,11 +3478,11 @@
         <v>8</v>
       </c>
       <c r="O9" s="19">
-        <f t="shared" ref="O9:O32" si="1">POWER(10,N9)</f>
+        <f t="shared" ref="O9:O32" si="0">POWER(10,N9)</f>
         <v>100000000</v>
       </c>
       <c r="P9" s="19" t="str">
-        <f t="shared" ref="P9:P11" si="2">1&amp;RIGHT(O9,N9)</f>
+        <f t="shared" ref="P9:P11" si="1">1&amp;RIGHT(O9,N9)</f>
         <v>100000000</v>
       </c>
     </row>
@@ -3330,11 +3498,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="19" t="str">
-        <f t="shared" ref="F10:F56" si="3">H10&amp;I10</f>
+        <f t="shared" ref="F10:F56" si="2">H10&amp;I10</f>
         <v>5섬</v>
       </c>
       <c r="G10" s="19">
-        <f t="shared" ref="G10:G56" si="4">H10*J10</f>
+        <f t="shared" ref="G10:G56" si="3">H10*J10</f>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H10" s="19">
@@ -3345,7 +3513,7 @@
         <v>섬</v>
       </c>
       <c r="J10" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I10,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K10" s="11">
@@ -3358,11 +3526,11 @@
         <v>12</v>
       </c>
       <c r="O10" s="19">
+        <f t="shared" si="0"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="P10" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="P10" s="19" t="str">
-        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
     </row>
@@ -3372,11 +3540,11 @@
         <v>3</v>
       </c>
       <c r="F11" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>10섬</v>
+      </c>
+      <c r="G11" s="19">
         <f t="shared" si="3"/>
-        <v>10섬</v>
-      </c>
-      <c r="G11" s="19">
-        <f t="shared" si="4"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H11" s="19">
@@ -3387,7 +3555,7 @@
         <v>섬</v>
       </c>
       <c r="J11" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I11,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K11" s="11">
@@ -3400,11 +3568,11 @@
         <v>16</v>
       </c>
       <c r="O11" s="19">
+        <f t="shared" si="0"/>
+        <v>1E+16</v>
+      </c>
+      <c r="P11" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>1E+16</v>
-      </c>
-      <c r="P11" s="19" t="str">
-        <f t="shared" si="2"/>
         <v>10000000000000000</v>
       </c>
     </row>
@@ -3418,11 +3586,11 @@
         <v>4</v>
       </c>
       <c r="F12" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>50섬</v>
+      </c>
+      <c r="G12" s="19">
         <f t="shared" si="3"/>
-        <v>50섬</v>
-      </c>
-      <c r="G12" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H12" s="19">
@@ -3433,7 +3601,7 @@
         <v>섬</v>
       </c>
       <c r="J12" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I12,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K12" s="11">
@@ -3446,11 +3614,11 @@
         <v>20</v>
       </c>
       <c r="O12" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+20</v>
       </c>
       <c r="P12" s="19" t="str">
-        <f t="shared" ref="P12:P32" si="5">RIGHT(O12,N12)</f>
+        <f t="shared" ref="P12:P32" si="4">RIGHT(O12,N12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -3466,11 +3634,11 @@
         <v>5</v>
       </c>
       <c r="F13" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>100섬</v>
+      </c>
+      <c r="G13" s="19">
         <f t="shared" si="3"/>
-        <v>100섬</v>
-      </c>
-      <c r="G13" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H13" s="19">
@@ -3481,7 +3649,7 @@
         <v>섬</v>
       </c>
       <c r="J13" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I13,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K13" s="11">
@@ -3494,11 +3662,11 @@
         <v>24</v>
       </c>
       <c r="O13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="P13" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -3514,11 +3682,11 @@
         <v>6</v>
       </c>
       <c r="F14" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>500섬</v>
+      </c>
+      <c r="G14" s="19">
         <f t="shared" si="3"/>
-        <v>500섬</v>
-      </c>
-      <c r="G14" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H14" s="19">
@@ -3529,7 +3697,7 @@
         <v>섬</v>
       </c>
       <c r="J14" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I14,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K14" s="11">
@@ -3542,11 +3710,11 @@
         <v>28</v>
       </c>
       <c r="O14" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="P14" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -3556,11 +3724,11 @@
         <v>7</v>
       </c>
       <c r="F15" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>1000섬</v>
+      </c>
+      <c r="G15" s="19">
         <f t="shared" si="3"/>
-        <v>1000섬</v>
-      </c>
-      <c r="G15" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H15" s="19">
@@ -3571,7 +3739,7 @@
         <v>섬</v>
       </c>
       <c r="J15" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I15,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K15" s="11">
@@ -3584,11 +3752,11 @@
         <v>32</v>
       </c>
       <c r="O15" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="P15" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -3602,11 +3770,11 @@
         <v>8</v>
       </c>
       <c r="F16" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>5000섬</v>
+      </c>
+      <c r="G16" s="19">
         <f t="shared" si="3"/>
-        <v>5000섬</v>
-      </c>
-      <c r="G16" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H16" s="19">
@@ -3617,7 +3785,7 @@
         <v>섬</v>
       </c>
       <c r="J16" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I16,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K16" s="11">
@@ -3630,11 +3798,11 @@
         <v>36</v>
       </c>
       <c r="O16" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+36</v>
       </c>
       <c r="P16" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -3650,11 +3818,11 @@
         <v>9</v>
       </c>
       <c r="F17" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>1찰</v>
+      </c>
+      <c r="G17" s="19">
         <f t="shared" si="3"/>
-        <v>1찰</v>
-      </c>
-      <c r="G17" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H17" s="19">
@@ -3665,7 +3833,7 @@
         <v>찰</v>
       </c>
       <c r="J17" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I17,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K17" s="11">
@@ -3678,11 +3846,11 @@
         <v>40</v>
       </c>
       <c r="O17" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+40</v>
       </c>
       <c r="P17" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -3698,11 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F18" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>5찰</v>
+      </c>
+      <c r="G18" s="19">
         <f t="shared" si="3"/>
-        <v>5찰</v>
-      </c>
-      <c r="G18" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H18" s="19">
@@ -3713,7 +3881,7 @@
         <v>찰</v>
       </c>
       <c r="J18" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I18,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K18" s="11">
@@ -3726,11 +3894,11 @@
         <v>44</v>
       </c>
       <c r="O18" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="P18" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -3740,11 +3908,11 @@
         <v>11</v>
       </c>
       <c r="F19" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>10찰</v>
+      </c>
+      <c r="G19" s="19">
         <f t="shared" si="3"/>
-        <v>10찰</v>
-      </c>
-      <c r="G19" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H19" s="19">
@@ -3755,7 +3923,7 @@
         <v>찰</v>
       </c>
       <c r="J19" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I19,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K19" s="11">
@@ -3768,11 +3936,11 @@
         <v>48</v>
       </c>
       <c r="O19" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+48</v>
       </c>
       <c r="P19" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -3782,11 +3950,11 @@
         <v>12</v>
       </c>
       <c r="F20" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>50찰</v>
+      </c>
+      <c r="G20" s="19">
         <f t="shared" si="3"/>
-        <v>50찰</v>
-      </c>
-      <c r="G20" s="19">
-        <f t="shared" si="4"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H20" s="19">
@@ -3797,7 +3965,7 @@
         <v>찰</v>
       </c>
       <c r="J20" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I20,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K20" s="11">
@@ -3810,11 +3978,11 @@
         <v>52</v>
       </c>
       <c r="O20" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="P20" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -3824,11 +3992,11 @@
         <v>13</v>
       </c>
       <c r="F21" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>100찰</v>
+      </c>
+      <c r="G21" s="19">
         <f t="shared" si="3"/>
-        <v>100찰</v>
-      </c>
-      <c r="G21" s="19">
-        <f t="shared" si="4"/>
         <v>1E+122</v>
       </c>
       <c r="H21" s="19">
@@ -3839,7 +4007,7 @@
         <v>찰</v>
       </c>
       <c r="J21" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I21,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K21" s="11">
@@ -3852,11 +4020,11 @@
         <v>56</v>
       </c>
       <c r="O21" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="P21" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -3866,11 +4034,11 @@
         <v>14</v>
       </c>
       <c r="F22" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>500찰</v>
+      </c>
+      <c r="G22" s="19">
         <f t="shared" si="3"/>
-        <v>500찰</v>
-      </c>
-      <c r="G22" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H22" s="19">
@@ -3881,7 +4049,7 @@
         <v>찰</v>
       </c>
       <c r="J22" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I22,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K22" s="11">
@@ -3894,11 +4062,11 @@
         <v>60</v>
       </c>
       <c r="O22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="P22" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -3907,11 +4075,11 @@
         <v>15</v>
       </c>
       <c r="F23" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>1000찰</v>
+      </c>
+      <c r="G23" s="19">
         <f t="shared" si="3"/>
-        <v>1000찰</v>
-      </c>
-      <c r="G23" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H23" s="19">
@@ -3922,7 +4090,7 @@
         <v>찰</v>
       </c>
       <c r="J23" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I23,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K23" s="11">
@@ -3935,11 +4103,11 @@
         <v>64</v>
       </c>
       <c r="O23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+64</v>
       </c>
       <c r="P23" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -3948,11 +4116,11 @@
         <v>16</v>
       </c>
       <c r="F24" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>5000찰</v>
+      </c>
+      <c r="G24" s="19">
         <f t="shared" si="3"/>
-        <v>5000찰</v>
-      </c>
-      <c r="G24" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H24" s="19">
@@ -3963,7 +4131,7 @@
         <v>찰</v>
       </c>
       <c r="J24" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I24,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K24" s="11">
@@ -3976,11 +4144,11 @@
         <v>68</v>
       </c>
       <c r="O24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="P24" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -3989,11 +4157,11 @@
         <v>17</v>
       </c>
       <c r="F25" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>1교</v>
+      </c>
+      <c r="G25" s="19">
         <f t="shared" si="3"/>
-        <v>1교</v>
-      </c>
-      <c r="G25" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H25" s="19">
@@ -4004,7 +4172,7 @@
         <v>교</v>
       </c>
       <c r="J25" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I25,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K25" s="11">
@@ -4017,11 +4185,11 @@
         <v>72</v>
       </c>
       <c r="O25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="P25" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -4030,11 +4198,11 @@
         <v>18</v>
       </c>
       <c r="F26" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>5교</v>
+      </c>
+      <c r="G26" s="19">
         <f t="shared" si="3"/>
-        <v>5교</v>
-      </c>
-      <c r="G26" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H26" s="19">
@@ -4045,7 +4213,7 @@
         <v>교</v>
       </c>
       <c r="J26" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I26,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K26" s="11">
@@ -4058,11 +4226,11 @@
         <v>76</v>
       </c>
       <c r="O26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+76</v>
       </c>
       <c r="P26" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -4071,11 +4239,11 @@
         <v>19</v>
       </c>
       <c r="F27" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>10교</v>
+      </c>
+      <c r="G27" s="19">
         <f t="shared" si="3"/>
-        <v>10교</v>
-      </c>
-      <c r="G27" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H27" s="19">
@@ -4086,7 +4254,7 @@
         <v>교</v>
       </c>
       <c r="J27" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I27,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K27" s="11">
@@ -4099,11 +4267,11 @@
         <v>80</v>
       </c>
       <c r="O27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
       <c r="P27" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -4112,11 +4280,11 @@
         <v>20</v>
       </c>
       <c r="F28" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>50교</v>
+      </c>
+      <c r="G28" s="19">
         <f t="shared" si="3"/>
-        <v>50교</v>
-      </c>
-      <c r="G28" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H28" s="19">
@@ -4127,7 +4295,7 @@
         <v>교</v>
       </c>
       <c r="J28" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I28,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K28" s="11">
@@ -4140,11 +4308,11 @@
         <v>84</v>
       </c>
       <c r="O28" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="P28" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -4153,11 +4321,11 @@
         <v>21</v>
       </c>
       <c r="F29" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>100교</v>
+      </c>
+      <c r="G29" s="19">
         <f t="shared" si="3"/>
-        <v>100교</v>
-      </c>
-      <c r="G29" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H29" s="19">
@@ -4168,7 +4336,7 @@
         <v>교</v>
       </c>
       <c r="J29" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I29,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K29" s="11">
@@ -4181,11 +4349,11 @@
         <v>88</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="P29" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -4194,11 +4362,11 @@
         <v>22</v>
       </c>
       <c r="F30" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>500교</v>
+      </c>
+      <c r="G30" s="19">
         <f t="shared" si="3"/>
-        <v>500교</v>
-      </c>
-      <c r="G30" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999998E+126</v>
       </c>
       <c r="H30" s="19">
@@ -4209,7 +4377,7 @@
         <v>교</v>
       </c>
       <c r="J30" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I30,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K30" s="11">
@@ -4222,11 +4390,11 @@
         <v>92</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+92</v>
       </c>
       <c r="P30" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -4235,11 +4403,11 @@
         <v>23</v>
       </c>
       <c r="F31" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>1000교</v>
+      </c>
+      <c r="G31" s="19">
         <f t="shared" si="3"/>
-        <v>1000교</v>
-      </c>
-      <c r="G31" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="H31" s="19">
@@ -4250,7 +4418,7 @@
         <v>교</v>
       </c>
       <c r="J31" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I31,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K31" s="11">
@@ -4263,11 +4431,11 @@
         <v>96</v>
       </c>
       <c r="O31" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
       <c r="P31" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -4276,11 +4444,11 @@
         <v>24</v>
       </c>
       <c r="F32" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>5000교</v>
+      </c>
+      <c r="G32" s="19">
         <f t="shared" si="3"/>
-        <v>5000교</v>
-      </c>
-      <c r="G32" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999994E+127</v>
       </c>
       <c r="H32" s="19">
@@ -4291,7 +4459,7 @@
         <v>교</v>
       </c>
       <c r="J32" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I32,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K32" s="11">
@@ -4305,11 +4473,11 @@
         <v>100</v>
       </c>
       <c r="O32" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+100</v>
       </c>
       <c r="P32" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -4318,11 +4486,11 @@
         <v>25</v>
       </c>
       <c r="F33" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>1위</v>
+      </c>
+      <c r="G33" s="19">
         <f t="shared" si="3"/>
-        <v>1위</v>
-      </c>
-      <c r="G33" s="19">
-        <f t="shared" si="4"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="H33" s="19">
@@ -4333,7 +4501,7 @@
         <v>위</v>
       </c>
       <c r="J33" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I33,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K33" s="11">
@@ -4347,11 +4515,11 @@
         <v>104</v>
       </c>
       <c r="O33" s="19">
-        <f t="shared" ref="O33:O41" si="6">POWER(10,N33)</f>
+        <f t="shared" ref="O33:O41" si="5">POWER(10,N33)</f>
         <v>1E+104</v>
       </c>
       <c r="P33" s="19" t="str">
-        <f t="shared" ref="P33:P41" si="7">RIGHT(O33,N33)</f>
+        <f t="shared" ref="P33:P41" si="6">RIGHT(O33,N33)</f>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="11"/>
@@ -4369,11 +4537,11 @@
         <v>26</v>
       </c>
       <c r="F34" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>5위</v>
+      </c>
+      <c r="G34" s="19">
         <f t="shared" si="3"/>
-        <v>5위</v>
-      </c>
-      <c r="G34" s="19">
-        <f t="shared" si="4"/>
         <v>5E+128</v>
       </c>
       <c r="H34" s="19">
@@ -4384,7 +4552,7 @@
         <v>위</v>
       </c>
       <c r="J34" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I34,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K34" s="11">
@@ -4398,11 +4566,11 @@
         <v>108</v>
       </c>
       <c r="O34" s="19">
+        <f t="shared" si="5"/>
+        <v>1E+108</v>
+      </c>
+      <c r="P34" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>1E+108</v>
-      </c>
-      <c r="P34" s="19" t="str">
-        <f t="shared" si="7"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="11"/>
@@ -4420,11 +4588,11 @@
         <v>27</v>
       </c>
       <c r="F35" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>10위</v>
+      </c>
+      <c r="G35" s="19">
         <f t="shared" si="3"/>
-        <v>10위</v>
-      </c>
-      <c r="G35" s="19">
-        <f t="shared" si="4"/>
         <v>1E+129</v>
       </c>
       <c r="H35" s="19">
@@ -4435,7 +4603,7 @@
         <v>위</v>
       </c>
       <c r="J35" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I35,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K35" s="11">
@@ -4449,11 +4617,11 @@
         <v>112</v>
       </c>
       <c r="O35" s="19">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="P35" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>9.9999999999999993E+111</v>
-      </c>
-      <c r="P35" s="19" t="str">
-        <f t="shared" si="7"/>
         <v>1E+112</v>
       </c>
       <c r="Q35" s="11"/>
@@ -4471,11 +4639,11 @@
         <v>28</v>
       </c>
       <c r="F36" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>50위</v>
+      </c>
+      <c r="G36" s="19">
         <f t="shared" si="3"/>
-        <v>50위</v>
-      </c>
-      <c r="G36" s="19">
-        <f t="shared" si="4"/>
         <v>5.0000000000000003E+129</v>
       </c>
       <c r="H36" s="19">
@@ -4486,7 +4654,7 @@
         <v>위</v>
       </c>
       <c r="J36" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I36,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K36" s="11">
@@ -4500,11 +4668,11 @@
         <v>116</v>
       </c>
       <c r="O36" s="19">
+        <f t="shared" si="5"/>
+        <v>1E+116</v>
+      </c>
+      <c r="P36" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>1E+116</v>
-      </c>
-      <c r="P36" s="19" t="str">
-        <f t="shared" si="7"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="11"/>
@@ -4522,11 +4690,11 @@
         <v>29</v>
       </c>
       <c r="F37" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>100위</v>
+      </c>
+      <c r="G37" s="19">
         <f t="shared" si="3"/>
-        <v>100위</v>
-      </c>
-      <c r="G37" s="19">
-        <f t="shared" si="4"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="H37" s="19">
@@ -4537,7 +4705,7 @@
         <v>위</v>
       </c>
       <c r="J37" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I37,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K37" s="11">
@@ -4551,11 +4719,11 @@
         <v>120</v>
       </c>
       <c r="O37" s="19">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="P37" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>9.9999999999999998E+119</v>
-      </c>
-      <c r="P37" s="19" t="str">
-        <f t="shared" si="7"/>
         <v>1E+120</v>
       </c>
       <c r="Q37" s="11"/>
@@ -4573,11 +4741,11 @@
         <v>30</v>
       </c>
       <c r="F38" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>500위</v>
+      </c>
+      <c r="G38" s="19">
         <f t="shared" si="3"/>
-        <v>500위</v>
-      </c>
-      <c r="G38" s="19">
-        <f t="shared" si="4"/>
         <v>5.0000000000000005E+130</v>
       </c>
       <c r="H38" s="19">
@@ -4588,7 +4756,7 @@
         <v>위</v>
       </c>
       <c r="J38" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I38,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K38" s="11">
@@ -4602,11 +4770,11 @@
         <v>124</v>
       </c>
       <c r="O38" s="19">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="P38" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>9.9999999999999995E+123</v>
-      </c>
-      <c r="P38" s="19" t="str">
-        <f t="shared" si="7"/>
         <v>1E+124</v>
       </c>
       <c r="Q38" s="11"/>
@@ -4624,11 +4792,11 @@
         <v>31</v>
       </c>
       <c r="F39" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>1000위</v>
+      </c>
+      <c r="G39" s="19">
         <f t="shared" si="3"/>
-        <v>1000위</v>
-      </c>
-      <c r="G39" s="19">
-        <f t="shared" si="4"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="H39" s="19">
@@ -4639,7 +4807,7 @@
         <v>위</v>
       </c>
       <c r="J39" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I39,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K39" s="11">
@@ -4653,11 +4821,11 @@
         <v>128</v>
       </c>
       <c r="O39" s="19">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="P39" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="P39" s="19" t="str">
-        <f t="shared" si="7"/>
         <v>1E+128</v>
       </c>
       <c r="Q39" s="11"/>
@@ -4675,11 +4843,11 @@
         <v>32</v>
       </c>
       <c r="F40" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>5000위</v>
+      </c>
+      <c r="G40" s="19">
         <f t="shared" si="3"/>
-        <v>5000위</v>
-      </c>
-      <c r="G40" s="19">
-        <f t="shared" si="4"/>
         <v>5.0000000000000007E+131</v>
       </c>
       <c r="H40" s="19">
@@ -4690,7 +4858,7 @@
         <v>위</v>
       </c>
       <c r="J40" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I40,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K40" s="11">
@@ -4703,11 +4871,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="19">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="P40" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>9.9999999999999999E+131</v>
-      </c>
-      <c r="P40" s="19" t="str">
-        <f t="shared" si="7"/>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="11"/>
@@ -4725,11 +4893,11 @@
         <v>33</v>
       </c>
       <c r="F41" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>1설</v>
+      </c>
+      <c r="G41" s="19">
         <f t="shared" si="3"/>
-        <v>1설</v>
-      </c>
-      <c r="G41" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="H41" s="19">
@@ -4740,7 +4908,7 @@
         <v>설</v>
       </c>
       <c r="J41" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I41,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K41" s="11">
@@ -4753,11 +4921,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="19">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="P41" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>1.0000000000000001E+136</v>
-      </c>
-      <c r="P41" s="19" t="str">
-        <f t="shared" si="7"/>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="11"/>
@@ -4775,11 +4943,11 @@
         <v>34</v>
       </c>
       <c r="F42" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>5설</v>
+      </c>
+      <c r="G42" s="19">
         <f t="shared" si="3"/>
-        <v>5설</v>
-      </c>
-      <c r="G42" s="19">
-        <f t="shared" si="4"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H42" s="19">
@@ -4790,7 +4958,7 @@
         <v>설</v>
       </c>
       <c r="J42" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I42,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K42" s="11">
@@ -4803,11 +4971,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="19">
-        <f t="shared" ref="O42" si="8">POWER(10,N42)</f>
+        <f t="shared" ref="O42" si="7">POWER(10,N42)</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="19" t="str">
-        <f t="shared" ref="P42" si="9">RIGHT(O42,N42)</f>
+        <f t="shared" ref="P42" si="8">RIGHT(O42,N42)</f>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="11"/>
@@ -4825,11 +4993,11 @@
         <v>35</v>
       </c>
       <c r="F43" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>10설</v>
+      </c>
+      <c r="G43" s="19">
         <f t="shared" si="3"/>
-        <v>10설</v>
-      </c>
-      <c r="G43" s="19">
-        <f t="shared" si="4"/>
         <v>1E+133</v>
       </c>
       <c r="H43" s="19">
@@ -4840,7 +5008,7 @@
         <v>설</v>
       </c>
       <c r="J43" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I43,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K43" s="11">
@@ -4853,11 +5021,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="19">
-        <f t="shared" ref="O43" si="10">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="9">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="19" t="str">
-        <f t="shared" ref="P43" si="11">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="10">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="11"/>
@@ -4875,11 +5043,11 @@
         <v>36</v>
       </c>
       <c r="F44" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>50설</v>
+      </c>
+      <c r="G44" s="19">
         <f t="shared" si="3"/>
-        <v>50설</v>
-      </c>
-      <c r="G44" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H44" s="19">
@@ -4890,7 +5058,7 @@
         <v>설</v>
       </c>
       <c r="J44" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I44,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K44" s="11">
@@ -4903,11 +5071,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="19">
-        <f t="shared" ref="O44" si="12">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="11">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="19" t="str">
-        <f t="shared" ref="P44" si="13">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="12">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="11"/>
@@ -4925,11 +5093,11 @@
         <v>37</v>
       </c>
       <c r="F45" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>100설</v>
+      </c>
+      <c r="G45" s="19">
         <f t="shared" si="3"/>
-        <v>100설</v>
-      </c>
-      <c r="G45" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H45" s="19">
@@ -4940,7 +5108,7 @@
         <v>설</v>
       </c>
       <c r="J45" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I45,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K45" s="11">
@@ -4953,11 +5121,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="19">
-        <f t="shared" ref="O45:O46" si="14">POWER(10,N45)</f>
+        <f t="shared" ref="O45:O46" si="13">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="19" t="str">
-        <f t="shared" ref="P45:P46" si="15">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45:P46" si="14">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="11"/>
@@ -4975,11 +5143,11 @@
         <v>38</v>
       </c>
       <c r="F46" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>500설</v>
+      </c>
+      <c r="G46" s="19">
         <f t="shared" si="3"/>
-        <v>500설</v>
-      </c>
-      <c r="G46" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H46" s="19">
@@ -4990,7 +5158,7 @@
         <v>설</v>
       </c>
       <c r="J46" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I46,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K46" s="11">
@@ -5003,11 +5171,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="19">
+        <f t="shared" si="13"/>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="P46" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>9.9999999999999998E+155</v>
-      </c>
-      <c r="P46" s="19" t="str">
-        <f t="shared" si="15"/>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="11"/>
@@ -5025,11 +5193,11 @@
         <v>39</v>
       </c>
       <c r="F47" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>1000설</v>
+      </c>
+      <c r="G47" s="19">
         <f t="shared" si="3"/>
-        <v>1000설</v>
-      </c>
-      <c r="G47" s="19">
-        <f t="shared" si="4"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H47" s="19">
@@ -5040,7 +5208,7 @@
         <v>설</v>
       </c>
       <c r="J47" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I47,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K47" s="11">
@@ -5053,11 +5221,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="19">
-        <f t="shared" ref="O47:O49" si="16">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O49" si="15">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="19" t="str">
-        <f t="shared" ref="P47:P49" si="17">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P49" si="16">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="11"/>
@@ -5075,11 +5243,11 @@
         <v>40</v>
       </c>
       <c r="F48" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>5000설</v>
+      </c>
+      <c r="G48" s="19">
         <f t="shared" si="3"/>
-        <v>5000설</v>
-      </c>
-      <c r="G48" s="19">
-        <f t="shared" si="4"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H48" s="19">
@@ -5090,24 +5258,24 @@
         <v>설</v>
       </c>
       <c r="J48" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I48,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K48" s="11">
         <v>27</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N48" s="18">
         <v>164</v>
       </c>
       <c r="O48" s="19">
+        <f t="shared" si="15"/>
+        <v>1E+164</v>
+      </c>
+      <c r="P48" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>1E+164</v>
-      </c>
-      <c r="P48" s="19" t="str">
-        <f t="shared" si="17"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="11"/>
@@ -5125,11 +5293,11 @@
         <v>41</v>
       </c>
       <c r="F49" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>1적</v>
+      </c>
+      <c r="G49" s="19">
         <f t="shared" si="3"/>
-        <v>1적</v>
-      </c>
-      <c r="G49" s="19">
-        <f t="shared" si="4"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H49" s="19">
@@ -5140,24 +5308,24 @@
         <v>적</v>
       </c>
       <c r="J49" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I49,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K49" s="11">
         <v>28</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N49" s="18">
         <v>168</v>
       </c>
       <c r="O49" s="19">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="P49" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>9.9999999999999993E+167</v>
-      </c>
-      <c r="P49" s="19" t="str">
-        <f t="shared" si="17"/>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="11"/>
@@ -5175,11 +5343,11 @@
         <v>42</v>
       </c>
       <c r="F50" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>5적</v>
+      </c>
+      <c r="G50" s="19">
         <f t="shared" si="3"/>
-        <v>5적</v>
-      </c>
-      <c r="G50" s="19">
-        <f t="shared" si="4"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H50" s="19">
@@ -5190,7 +5358,7 @@
         <v>적</v>
       </c>
       <c r="J50" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I50,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K50" s="11">
@@ -5213,11 +5381,11 @@
         <v>43</v>
       </c>
       <c r="F51" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>10적</v>
+      </c>
+      <c r="G51" s="19">
         <f t="shared" si="3"/>
-        <v>10적</v>
-      </c>
-      <c r="G51" s="19">
-        <f t="shared" si="4"/>
         <v>1E+137</v>
       </c>
       <c r="H51" s="19">
@@ -5228,7 +5396,7 @@
         <v>적</v>
       </c>
       <c r="J51" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I51,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K51" s="11">
@@ -5251,11 +5419,11 @@
         <v>44</v>
       </c>
       <c r="F52" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>50적</v>
+      </c>
+      <c r="G52" s="19">
         <f t="shared" si="3"/>
-        <v>50적</v>
-      </c>
-      <c r="G52" s="19">
-        <f t="shared" si="4"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H52" s="19">
@@ -5266,7 +5434,7 @@
         <v>적</v>
       </c>
       <c r="J52" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I52,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K52" s="11">
@@ -5289,11 +5457,11 @@
         <v>45</v>
       </c>
       <c r="F53" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>100적</v>
+      </c>
+      <c r="G53" s="19">
         <f t="shared" si="3"/>
-        <v>100적</v>
-      </c>
-      <c r="G53" s="19">
-        <f t="shared" si="4"/>
         <v>1E+138</v>
       </c>
       <c r="H53" s="19">
@@ -5304,7 +5472,7 @@
         <v>적</v>
       </c>
       <c r="J53" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I53,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K53" s="11">
@@ -5327,11 +5495,11 @@
         <v>46</v>
       </c>
       <c r="F54" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>500적</v>
+      </c>
+      <c r="G54" s="19">
         <f t="shared" si="3"/>
-        <v>500적</v>
-      </c>
-      <c r="G54" s="19">
-        <f t="shared" si="4"/>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H54" s="19">
@@ -5342,7 +5510,7 @@
         <v>적</v>
       </c>
       <c r="J54" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I54,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K54" s="11">
@@ -5365,11 +5533,11 @@
         <v>47</v>
       </c>
       <c r="F55" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>1000적</v>
+      </c>
+      <c r="G55" s="19">
         <f t="shared" si="3"/>
-        <v>1000적</v>
-      </c>
-      <c r="G55" s="19">
-        <f t="shared" si="4"/>
         <v>1E+139</v>
       </c>
       <c r="H55" s="19">
@@ -5380,7 +5548,7 @@
         <v>적</v>
       </c>
       <c r="J55" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I55,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K55" s="11">
@@ -5403,11 +5571,11 @@
         <v>48</v>
       </c>
       <c r="F56" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>5000적</v>
+      </c>
+      <c r="G56" s="19">
         <f t="shared" si="3"/>
-        <v>5000적</v>
-      </c>
-      <c r="G56" s="19">
-        <f t="shared" si="4"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H56" s="19">
@@ -5418,7 +5586,7 @@
         <v>적</v>
       </c>
       <c r="J56" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I56,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K56" s="11">
@@ -5441,11 +5609,11 @@
         <v>49</v>
       </c>
       <c r="F57" s="19" t="str">
-        <f t="shared" ref="F57:F64" si="18">H57&amp;I57</f>
+        <f t="shared" ref="F57:F64" si="17">H57&amp;I57</f>
         <v>1고</v>
       </c>
       <c r="G57" s="19">
-        <f t="shared" ref="G57:G64" si="19">H57*J57</f>
+        <f t="shared" ref="G57:G64" si="18">H57*J57</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H57" s="19">
@@ -5456,7 +5624,7 @@
         <v>고</v>
       </c>
       <c r="J57" s="18" t="str">
-        <f t="shared" ref="J57:J64" si="20">VLOOKUP(I57,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I57,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K57" s="11">
@@ -5468,11 +5636,11 @@
         <v>50</v>
       </c>
       <c r="F58" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>5고</v>
+      </c>
+      <c r="G58" s="19">
         <f t="shared" si="18"/>
-        <v>5고</v>
-      </c>
-      <c r="G58" s="19">
-        <f t="shared" si="19"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H58" s="19">
@@ -5483,7 +5651,7 @@
         <v>고</v>
       </c>
       <c r="J58" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>VLOOKUP(I58,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K58" s="11">
@@ -5495,11 +5663,11 @@
         <v>51</v>
       </c>
       <c r="F59" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>10고</v>
+      </c>
+      <c r="G59" s="19">
         <f t="shared" si="18"/>
-        <v>10고</v>
-      </c>
-      <c r="G59" s="19">
-        <f t="shared" si="19"/>
         <v>1E+141</v>
       </c>
       <c r="H59" s="19">
@@ -5510,7 +5678,7 @@
         <v>고</v>
       </c>
       <c r="J59" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>VLOOKUP(I59,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K59" s="11">
@@ -5522,11 +5690,11 @@
         <v>52</v>
       </c>
       <c r="F60" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>50고</v>
+      </c>
+      <c r="G60" s="19">
         <f t="shared" si="18"/>
-        <v>50고</v>
-      </c>
-      <c r="G60" s="19">
-        <f t="shared" si="19"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H60" s="19">
@@ -5537,7 +5705,7 @@
         <v>고</v>
       </c>
       <c r="J60" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>VLOOKUP(I60,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K60" s="11">
@@ -5549,11 +5717,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>100고</v>
+      </c>
+      <c r="G61" s="19">
         <f t="shared" si="18"/>
-        <v>100고</v>
-      </c>
-      <c r="G61" s="19">
-        <f t="shared" si="19"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H61" s="19">
@@ -5564,7 +5732,7 @@
         <v>고</v>
       </c>
       <c r="J61" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>VLOOKUP(I61,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K61" s="11">
@@ -5576,11 +5744,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>500고</v>
+      </c>
+      <c r="G62" s="19">
         <f t="shared" si="18"/>
-        <v>500고</v>
-      </c>
-      <c r="G62" s="19">
-        <f t="shared" si="19"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H62" s="19">
@@ -5591,7 +5759,7 @@
         <v>고</v>
       </c>
       <c r="J62" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>VLOOKUP(I62,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K62" s="11">
@@ -5603,11 +5771,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>1000고</v>
+      </c>
+      <c r="G63" s="19">
         <f t="shared" si="18"/>
-        <v>1000고</v>
-      </c>
-      <c r="G63" s="19">
-        <f t="shared" si="19"/>
         <v>1E+143</v>
       </c>
       <c r="H63" s="19">
@@ -5618,7 +5786,7 @@
         <v>고</v>
       </c>
       <c r="J63" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>VLOOKUP(I63,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K63" s="11">
@@ -5630,11 +5798,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>5000고</v>
+      </c>
+      <c r="G64" s="19">
         <f t="shared" si="18"/>
-        <v>5000고</v>
-      </c>
-      <c r="G64" s="19">
-        <f t="shared" si="19"/>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H64" s="19">
@@ -5645,7 +5813,7 @@
         <v>고</v>
       </c>
       <c r="J64" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>VLOOKUP(I64,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K64" s="11">
@@ -5657,11 +5825,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="19" t="str">
-        <f t="shared" ref="F65:F72" si="21">H65&amp;I65</f>
+        <f t="shared" ref="F65:F72" si="19">H65&amp;I65</f>
         <v>1화</v>
       </c>
       <c r="G65" s="19">
-        <f t="shared" ref="G65:G72" si="22">H65*J65</f>
+        <f t="shared" ref="G65:G72" si="20">H65*J65</f>
         <v>1E+144</v>
       </c>
       <c r="H65" s="19">
@@ -5672,7 +5840,7 @@
         <v>화</v>
       </c>
       <c r="J65" s="18" t="str">
-        <f t="shared" ref="J65:J72" si="23">VLOOKUP(I65,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I65,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K65" s="11">
@@ -5684,11 +5852,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5화</v>
       </c>
       <c r="G66" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H66" s="19">
@@ -5699,7 +5867,7 @@
         <v>화</v>
       </c>
       <c r="J66" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f>VLOOKUP(I66,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K66" s="11">
@@ -5711,11 +5879,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>10화</v>
       </c>
       <c r="G67" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H67" s="19">
@@ -5726,7 +5894,7 @@
         <v>화</v>
       </c>
       <c r="J67" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f>VLOOKUP(I67,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K67" s="11">
@@ -5738,11 +5906,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>50화</v>
       </c>
       <c r="G68" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H68" s="19">
@@ -5753,7 +5921,7 @@
         <v>화</v>
       </c>
       <c r="J68" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f>VLOOKUP(I68,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K68" s="11">
@@ -5765,11 +5933,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>100화</v>
       </c>
       <c r="G69" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H69" s="19">
@@ -5780,7 +5948,7 @@
         <v>화</v>
       </c>
       <c r="J69" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f>VLOOKUP(I69,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K69" s="11">
@@ -5792,11 +5960,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>500화</v>
       </c>
       <c r="G70" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H70" s="19">
@@ -5807,7 +5975,7 @@
         <v>화</v>
       </c>
       <c r="J70" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f>VLOOKUP(I70,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K70" s="11">
@@ -5819,11 +5987,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>1000화</v>
       </c>
       <c r="G71" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H71" s="19">
@@ -5834,7 +6002,7 @@
         <v>화</v>
       </c>
       <c r="J71" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f>VLOOKUP(I71,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K71" s="11">
@@ -5846,11 +6014,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5000화</v>
       </c>
       <c r="G72" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H72" s="19">
@@ -5861,7 +6029,7 @@
         <v>화</v>
       </c>
       <c r="J72" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f>VLOOKUP(I72,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K72" s="11">
@@ -5873,11 +6041,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="19" t="str">
-        <f t="shared" ref="F73:F80" si="24">H73&amp;I73</f>
+        <f t="shared" ref="F73:F80" si="21">H73&amp;I73</f>
         <v>1명</v>
       </c>
       <c r="G73" s="19">
-        <f t="shared" ref="G73:G80" si="25">H73*J73</f>
+        <f t="shared" ref="G73:G80" si="22">H73*J73</f>
         <v>1E+148</v>
       </c>
       <c r="H73" s="19">
@@ -5888,7 +6056,7 @@
         <v>명</v>
       </c>
       <c r="J73" s="18" t="str">
-        <f t="shared" ref="J73:J80" si="26">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K73" s="11">
@@ -5900,11 +6068,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="19" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>5명</v>
       </c>
       <c r="G74" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H74" s="19">
@@ -5915,7 +6083,7 @@
         <v>명</v>
       </c>
       <c r="J74" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(I74,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K74" s="11">
@@ -5927,11 +6095,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="19" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>10명</v>
       </c>
       <c r="G75" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1E+149</v>
       </c>
       <c r="H75" s="19">
@@ -5942,7 +6110,7 @@
         <v>명</v>
       </c>
       <c r="J75" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(I75,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K75" s="11">
@@ -5954,11 +6122,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="19" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>50명</v>
       </c>
       <c r="G76" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H76" s="19">
@@ -5969,7 +6137,7 @@
         <v>명</v>
       </c>
       <c r="J76" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(I76,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K76" s="11">
@@ -5981,11 +6149,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="19" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>100명</v>
       </c>
       <c r="G77" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H77" s="19">
@@ -5996,7 +6164,7 @@
         <v>명</v>
       </c>
       <c r="J77" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(I77,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K77" s="11">
@@ -6008,11 +6176,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="19" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>500명</v>
       </c>
       <c r="G78" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H78" s="19">
@@ -6023,7 +6191,7 @@
         <v>명</v>
       </c>
       <c r="J78" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(I78,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K78" s="11">
@@ -6035,11 +6203,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="19" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>1000명</v>
       </c>
       <c r="G79" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1E+151</v>
       </c>
       <c r="H79" s="19">
@@ -6050,7 +6218,7 @@
         <v>명</v>
       </c>
       <c r="J79" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(I79,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K79" s="11">
@@ -6062,11 +6230,11 @@
         <v>72</v>
       </c>
       <c r="F80" s="19" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>5000명</v>
       </c>
       <c r="G80" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H80" s="19">
@@ -6077,7 +6245,7 @@
         <v>명</v>
       </c>
       <c r="J80" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(I80,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K80" s="11">
@@ -6089,11 +6257,11 @@
         <v>73</v>
       </c>
       <c r="F81" s="19" t="str">
-        <f t="shared" ref="F81:F88" si="27">H81&amp;I81</f>
+        <f t="shared" ref="F81:F88" si="23">H81&amp;I81</f>
         <v>1월</v>
       </c>
       <c r="G81" s="19">
-        <f t="shared" ref="G81:G88" si="28">H81*J81</f>
+        <f t="shared" ref="G81:G88" si="24">H81*J81</f>
         <v>1E+152</v>
       </c>
       <c r="H81" s="19">
@@ -6104,7 +6272,7 @@
         <v>월</v>
       </c>
       <c r="J81" s="18" t="str">
-        <f t="shared" ref="J81:J88" si="29">VLOOKUP(I81,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I81,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K81" s="11">
@@ -6116,11 +6284,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="19" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>5월</v>
       </c>
       <c r="G82" s="19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>5E+152</v>
       </c>
       <c r="H82" s="19">
@@ -6131,7 +6299,7 @@
         <v>월</v>
       </c>
       <c r="J82" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(I82,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K82" s="11">
@@ -6143,11 +6311,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="19" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>10월</v>
       </c>
       <c r="G83" s="19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>1E+153</v>
       </c>
       <c r="H83" s="19">
@@ -6158,7 +6326,7 @@
         <v>월</v>
       </c>
       <c r="J83" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(I83,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K83" s="11">
@@ -6170,11 +6338,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="19" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>50월</v>
       </c>
       <c r="G84" s="19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000002E+153</v>
       </c>
       <c r="H84" s="19">
@@ -6185,7 +6353,7 @@
         <v>월</v>
       </c>
       <c r="J84" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(I84,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K84" s="11">
@@ -6197,11 +6365,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="19" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>100월</v>
       </c>
       <c r="G85" s="19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>1E+154</v>
       </c>
       <c r="H85" s="19">
@@ -6212,7 +6380,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(I85,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K85" s="11">
@@ -6224,11 +6392,11 @@
         <v>78</v>
       </c>
       <c r="F86" s="19" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>500월</v>
       </c>
       <c r="G86" s="19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>5E+154</v>
       </c>
       <c r="H86" s="19">
@@ -6239,7 +6407,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(I86,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K86" s="11">
@@ -6251,11 +6419,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="19" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>1000월</v>
       </c>
       <c r="G87" s="19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>1E+155</v>
       </c>
       <c r="H87" s="19">
@@ -6266,7 +6434,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(I87,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K87" s="11">
@@ -6278,11 +6446,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="19" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>5000월</v>
       </c>
       <c r="G88" s="19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>4.9999999999999999E+155</v>
       </c>
       <c r="H88" s="19">
@@ -6293,7 +6461,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f>VLOOKUP(I88,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K88" s="11">
@@ -6305,11 +6473,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="19" t="str">
-        <f t="shared" ref="F89:F96" si="30">H89&amp;I89</f>
+        <f t="shared" ref="F89:F96" si="25">H89&amp;I89</f>
         <v>1후</v>
       </c>
       <c r="G89" s="19">
-        <f t="shared" ref="G89:G96" si="31">H89*J89</f>
+        <f t="shared" ref="G89:G96" si="26">H89*J89</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="19">
@@ -6320,7 +6488,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="18" t="str">
-        <f t="shared" ref="J89:J96" si="32">VLOOKUP(I89,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I89,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K89" s="11">
@@ -6332,11 +6500,11 @@
         <v>82</v>
       </c>
       <c r="F90" s="19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>5후</v>
       </c>
       <c r="G90" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>4.9999999999999999E+156</v>
       </c>
       <c r="H90" s="19">
@@ -6347,7 +6515,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f>VLOOKUP(I90,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K90" s="11">
@@ -6359,11 +6527,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>10후</v>
       </c>
       <c r="G91" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H91" s="19">
@@ -6374,7 +6542,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f>VLOOKUP(I91,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
@@ -6386,11 +6554,11 @@
         <v>84</v>
       </c>
       <c r="F92" s="19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>50후</v>
       </c>
       <c r="G92" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>4.9999999999999998E+157</v>
       </c>
       <c r="H92" s="19">
@@ -6401,7 +6569,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f>VLOOKUP(I92,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
@@ -6413,11 +6581,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>100후</v>
       </c>
       <c r="G93" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H93" s="19">
@@ -6428,7 +6596,7 @@
         <v>후</v>
       </c>
       <c r="J93" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f>VLOOKUP(I93,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
@@ -6440,11 +6608,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>500후</v>
       </c>
       <c r="G94" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>4.9999999999999996E+158</v>
       </c>
       <c r="H94" s="19">
@@ -6455,7 +6623,7 @@
         <v>후</v>
       </c>
       <c r="J94" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f>VLOOKUP(I94,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K94" s="11">
@@ -6467,11 +6635,11 @@
         <v>87</v>
       </c>
       <c r="F95" s="19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>1000후</v>
       </c>
       <c r="G95" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H95" s="19">
@@ -6482,7 +6650,7 @@
         <v>후</v>
       </c>
       <c r="J95" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f>VLOOKUP(I95,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K95" s="11">
@@ -6494,11 +6662,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>5000후</v>
       </c>
       <c r="G96" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>5E+159</v>
       </c>
       <c r="H96" s="19">
@@ -6509,7 +6677,7 @@
         <v>후</v>
       </c>
       <c r="J96" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f>VLOOKUP(I96,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K96" s="11">
@@ -6521,11 +6689,11 @@
         <v>89</v>
       </c>
       <c r="F97" s="19" t="str">
-        <f t="shared" ref="F97:F104" si="33">H97&amp;I97</f>
+        <f t="shared" ref="F97:F104" si="27">H97&amp;I97</f>
         <v>1단</v>
       </c>
       <c r="G97" s="19">
-        <f t="shared" ref="G97:G104" si="34">H97*J97</f>
+        <f t="shared" ref="G97:G104" si="28">H97*J97</f>
         <v>1E+160</v>
       </c>
       <c r="H97" s="19">
@@ -6536,7 +6704,7 @@
         <v>단</v>
       </c>
       <c r="J97" s="18" t="str">
-        <f t="shared" ref="J97:J104" si="35">VLOOKUP(I97,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I97,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K97" s="11">
@@ -6548,11 +6716,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="19" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>5단</v>
       </c>
       <c r="G98" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000000002E+160</v>
       </c>
       <c r="H98" s="19">
@@ -6563,7 +6731,7 @@
         <v>단</v>
       </c>
       <c r="J98" s="18" t="str">
-        <f t="shared" si="35"/>
+        <f>VLOOKUP(I98,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K98" s="11">
@@ -6575,11 +6743,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="19" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>10단</v>
       </c>
       <c r="G99" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1E+161</v>
       </c>
       <c r="H99" s="19">
@@ -6590,7 +6758,7 @@
         <v>단</v>
       </c>
       <c r="J99" s="18" t="str">
-        <f t="shared" si="35"/>
+        <f>VLOOKUP(I99,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K99" s="11">
@@ -6602,11 +6770,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="19" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>50단</v>
       </c>
       <c r="G100" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>4.9999999999999997E+161</v>
       </c>
       <c r="H100" s="19">
@@ -6617,7 +6785,7 @@
         <v>단</v>
       </c>
       <c r="J100" s="18" t="str">
-        <f t="shared" si="35"/>
+        <f>VLOOKUP(I100,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K100" s="11">
@@ -6629,11 +6797,11 @@
         <v>93</v>
       </c>
       <c r="F101" s="19" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>100단</v>
       </c>
       <c r="G101" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H101" s="19">
@@ -6644,7 +6812,7 @@
         <v>단</v>
       </c>
       <c r="J101" s="18" t="str">
-        <f t="shared" si="35"/>
+        <f>VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K101" s="11">
@@ -6656,11 +6824,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="19" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>500단</v>
       </c>
       <c r="G102" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>4.9999999999999997E+162</v>
       </c>
       <c r="H102" s="19">
@@ -6671,7 +6839,7 @@
         <v>단</v>
       </c>
       <c r="J102" s="18" t="str">
-        <f t="shared" si="35"/>
+        <f>VLOOKUP(I102,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K102" s="11">
@@ -6683,11 +6851,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="19" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>1000단</v>
       </c>
       <c r="G103" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H103" s="19">
@@ -6698,7 +6866,7 @@
         <v>단</v>
       </c>
       <c r="J103" s="18" t="str">
-        <f t="shared" si="35"/>
+        <f>VLOOKUP(I103,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K103" s="11">
@@ -6710,11 +6878,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="19" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>5000단</v>
       </c>
       <c r="G104" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>5E+163</v>
       </c>
       <c r="H104" s="19">
@@ -6725,7 +6893,7 @@
         <v>단</v>
       </c>
       <c r="J104" s="18" t="str">
-        <f t="shared" si="35"/>
+        <f>VLOOKUP(I104,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K104" s="11">
@@ -6737,11 +6905,11 @@
         <v>97</v>
       </c>
       <c r="F105" s="19" t="str">
-        <f t="shared" ref="F105:F112" si="36">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="29">H105&amp;I105</f>
         <v>1절</v>
       </c>
       <c r="G105" s="19">
-        <f t="shared" ref="G105:G112" si="37">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="30">H105*J105</f>
         <v>1E+164</v>
       </c>
       <c r="H105" s="19">
@@ -6752,7 +6920,7 @@
         <v>절</v>
       </c>
       <c r="J105" s="18" t="str">
-        <f t="shared" ref="J105:J112" si="38">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K105" s="11">
@@ -6764,11 +6932,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="19" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>5절</v>
       </c>
       <c r="G106" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>5.0000000000000005E+164</v>
       </c>
       <c r="H106" s="19">
@@ -6779,7 +6947,7 @@
         <v>절</v>
       </c>
       <c r="J106" s="18" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(I106,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K106" s="11">
@@ -6791,11 +6959,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="19" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>10절</v>
       </c>
       <c r="G107" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H107" s="19">
@@ -6806,7 +6974,7 @@
         <v>절</v>
       </c>
       <c r="J107" s="18" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(I107,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K107" s="11">
@@ -6818,11 +6986,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="19" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>50절</v>
       </c>
       <c r="G108" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>4.9999999999999997E+165</v>
       </c>
       <c r="H108" s="19">
@@ -6833,7 +7001,7 @@
         <v>절</v>
       </c>
       <c r="J108" s="18" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(I108,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K108" s="11">
@@ -6845,11 +7013,11 @@
         <v>101</v>
       </c>
       <c r="F109" s="19" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>100절</v>
       </c>
       <c r="G109" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H109" s="19">
@@ -6860,7 +7028,7 @@
         <v>절</v>
       </c>
       <c r="J109" s="18" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(I109,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K109" s="11">
@@ -6872,11 +7040,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="19" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>500절</v>
       </c>
       <c r="G110" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>5.0000000000000002E+166</v>
       </c>
       <c r="H110" s="19">
@@ -6887,7 +7055,7 @@
         <v>절</v>
       </c>
       <c r="J110" s="18" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K110" s="11">
@@ -6899,11 +7067,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="19" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>1000절</v>
       </c>
       <c r="G111" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>1E+167</v>
       </c>
       <c r="H111" s="19">
@@ -6914,7 +7082,7 @@
         <v>절</v>
       </c>
       <c r="J111" s="18" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(I111,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K111" s="11">
@@ -6926,11 +7094,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="19" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>5000절</v>
       </c>
       <c r="G112" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>4.9999999999999997E+167</v>
       </c>
       <c r="H112" s="19">
@@ -6941,11 +7109,235 @@
         <v>절</v>
       </c>
       <c r="J112" s="18" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(I112,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K112" s="11">
         <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E113" s="18">
+        <v>105</v>
+      </c>
+      <c r="F113" s="19" t="str">
+        <f t="shared" ref="F113:F120" si="31">H113&amp;I113</f>
+        <v>1격</v>
+      </c>
+      <c r="G113" s="19">
+        <f t="shared" ref="G113:G120" si="32">H113*J113</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="H113" s="19">
+        <f>H105</f>
+        <v>1</v>
+      </c>
+      <c r="I113" s="18" t="str" cm="1">
+        <f t="array" ref="I113">IF(AND(H112&gt;100,H113&lt;100),INDEX(M:M,MATCH(I112,M:M,0)+1,0),I112)</f>
+        <v>격</v>
+      </c>
+      <c r="J113" s="18" t="str">
+        <f>VLOOKUP(I113,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K113" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E114" s="18">
+        <v>106</v>
+      </c>
+      <c r="F114" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v>5격</v>
+      </c>
+      <c r="G114" s="19">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999997E+168</v>
+      </c>
+      <c r="H114" s="19">
+        <f t="shared" ref="H114:H120" si="33">H106</f>
+        <v>5</v>
+      </c>
+      <c r="I114" s="18" t="str" cm="1">
+        <f t="array" ref="I114">IF(AND(H113&gt;100,H114&lt;100),INDEX(M:M,MATCH(I113,M:M,0)+1,0),I113)</f>
+        <v>격</v>
+      </c>
+      <c r="J114" s="18" t="str">
+        <f>VLOOKUP(I114,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K114" s="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E115" s="18">
+        <v>107</v>
+      </c>
+      <c r="F115" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v>10격</v>
+      </c>
+      <c r="G115" s="19">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="H115" s="19">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="I115" s="18" t="str" cm="1">
+        <f t="array" ref="I115">IF(AND(H114&gt;100,H115&lt;100),INDEX(M:M,MATCH(I114,M:M,0)+1,0),I114)</f>
+        <v>격</v>
+      </c>
+      <c r="J115" s="18" t="str">
+        <f>VLOOKUP(I115,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K115" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E116" s="18">
+        <v>108</v>
+      </c>
+      <c r="F116" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v>50격</v>
+      </c>
+      <c r="G116" s="19">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999995E+169</v>
+      </c>
+      <c r="H116" s="19">
+        <f t="shared" si="33"/>
+        <v>50</v>
+      </c>
+      <c r="I116" s="18" t="str" cm="1">
+        <f t="array" ref="I116">IF(AND(H115&gt;100,H116&lt;100),INDEX(M:M,MATCH(I115,M:M,0)+1,0),I115)</f>
+        <v>격</v>
+      </c>
+      <c r="J116" s="18" t="str">
+        <f>VLOOKUP(I116,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K116" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E117" s="18">
+        <v>109</v>
+      </c>
+      <c r="F117" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v>100격</v>
+      </c>
+      <c r="G117" s="19">
+        <f t="shared" si="32"/>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="H117" s="19">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="I117" s="18" t="str" cm="1">
+        <f t="array" ref="I117">IF(AND(H116&gt;100,H117&lt;100),INDEX(M:M,MATCH(I116,M:M,0)+1,0),I116)</f>
+        <v>격</v>
+      </c>
+      <c r="J117" s="18" t="str">
+        <f>VLOOKUP(I117,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K117" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E118" s="18">
+        <v>110</v>
+      </c>
+      <c r="F118" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v>500격</v>
+      </c>
+      <c r="G118" s="19">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999998E+170</v>
+      </c>
+      <c r="H118" s="19">
+        <f t="shared" si="33"/>
+        <v>500</v>
+      </c>
+      <c r="I118" s="18" t="str" cm="1">
+        <f t="array" ref="I118">IF(AND(H117&gt;100,H118&lt;100),INDEX(M:M,MATCH(I117,M:M,0)+1,0),I117)</f>
+        <v>격</v>
+      </c>
+      <c r="J118" s="18" t="str">
+        <f>VLOOKUP(I118,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K118" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E119" s="18">
+        <v>111</v>
+      </c>
+      <c r="F119" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v>1000격</v>
+      </c>
+      <c r="G119" s="19">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="H119" s="19">
+        <f t="shared" si="33"/>
+        <v>1000</v>
+      </c>
+      <c r="I119" s="18" t="str" cm="1">
+        <f t="array" ref="I119">IF(AND(H118&gt;100,H119&lt;100),INDEX(M:M,MATCH(I118,M:M,0)+1,0),I118)</f>
+        <v>격</v>
+      </c>
+      <c r="J119" s="18" t="str">
+        <f>VLOOKUP(I119,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K119" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E120" s="18">
+        <v>112</v>
+      </c>
+      <c r="F120" s="19" t="str">
+        <f t="shared" si="31"/>
+        <v>5000격</v>
+      </c>
+      <c r="G120" s="19">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999996E+171</v>
+      </c>
+      <c r="H120" s="19">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="I120" s="18" t="str" cm="1">
+        <f t="array" ref="I120">IF(AND(H119&gt;100,H120&lt;100),INDEX(M:M,MATCH(I119,M:M,0)+1,0),I119)</f>
+        <v>격</v>
+      </c>
+      <c r="J120" s="18" t="str">
+        <f>VLOOKUP(I120,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K120" s="11">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
